--- a/nodes_source_analyses/energy/households/households_space_heater_hybrid_hydrogen_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/households/households_space_heater_hybrid_hydrogen_heatpump_air_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6BBB8B-064E-BE41-9946-BAEFA36B441A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902FDD33-72A5-7247-8D3F-BA03872F6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-22400" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="264">
   <si>
     <t>Source</t>
   </si>
@@ -962,6 +962,27 @@
   <si>
     <t>fever.capacity_electricity</t>
   </si>
+  <si>
+    <t>https://energy.nl/data/hydrogen-h%e2%82%82-boiler-services-sector/</t>
+  </si>
+  <si>
+    <t>Technology Factsheet Hydrogen (H₂) boiler services sector</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>hydrogen input</t>
+  </si>
+  <si>
+    <t>heat output</t>
+  </si>
+  <si>
+    <t>TNO1</t>
+  </si>
+  <si>
+    <t>TNO2</t>
+  </si>
 </sst>
 </file>
 
@@ -974,12 +995,19 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1579,863 +1607,873 @@
   </borders>
   <cellStyleXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="28" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="177" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="379">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2836,15 +2874,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>873125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>2439</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>181264</xdr:rowOff>
+      <xdr:colOff>748564</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>54264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2867,8 +2905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8737600" y="2286000"/>
-          <a:ext cx="14921731" cy="13160664"/>
+          <a:off x="13176250" y="6257925"/>
+          <a:ext cx="13162814" cy="14243339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2881,13 +2919,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1154</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>143163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2925,13 +2963,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2974,13 +3012,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3080,13 +3118,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>886125</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>19538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>260033</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>105449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3124,13 +3162,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>937845</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>97691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>795558</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>172397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3168,13 +3206,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>887307</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>64347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>551180</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>1193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3212,13 +3250,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3256,13 +3294,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>111760</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>607060</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3300,13 +3338,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>406641</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>193674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>705580</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3344,13 +3382,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>68592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>396640</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3388,13 +3426,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>58928</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3432,13 +3470,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3464,6 +3502,50 @@
         <a:xfrm>
           <a:off x="12493625" y="48987075"/>
           <a:ext cx="5575300" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675947</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>598044</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA06766-A637-3242-AA84-80470C5E650D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12979072" y="3000375"/>
+          <a:ext cx="17019472" cy="3085457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4149,28 +4231,28 @@
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="263" t="s">
+      <c r="B2" s="278" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="265"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="280"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="266"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="268"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="283"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="39" customHeight="1">
-      <c r="B4" s="269"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="271"/>
+      <c r="B4" s="284"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285"/>
+      <c r="E4" s="286"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
     </row>
@@ -4249,7 +4331,7 @@
       <c r="G10" s="98"/>
       <c r="H10" s="24"/>
       <c r="I10" s="111" t="str">
-        <f>LOOKUP(E10,'Research data'!G6:S6,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E10,'Research data'!G6:T6,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J10" s="37"/>
@@ -4271,7 +4353,7 @@
       <c r="G11" s="118"/>
       <c r="H11" s="24"/>
       <c r="I11" s="111" t="str">
-        <f>LOOKUP(E11,'Research data'!G7:S7,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E11,'Research data'!G7:T7,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J11" s="37"/>
@@ -4294,7 +4376,7 @@
       <c r="G12" s="98"/>
       <c r="H12" s="24"/>
       <c r="I12" s="111" t="str">
-        <f>LOOKUP(E12,'Research data'!G8:S8,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E12,'Research data'!G8:T8,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J12" s="37"/>
@@ -4317,7 +4399,7 @@
       <c r="G13" s="98"/>
       <c r="H13" s="24"/>
       <c r="I13" s="111" t="str">
-        <f>LOOKUP(E13,'Research data'!G9:S9,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E13,'Research data'!G9:T9,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J13" s="37"/>
@@ -4333,14 +4415,14 @@
         <v>4</v>
       </c>
       <c r="E14" s="113">
-        <f>'Research data'!J10</f>
+        <f>'Research data'!K10</f>
         <v>1</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="98"/>
       <c r="H14" s="24"/>
       <c r="I14" s="111" t="str">
-        <f>LOOKUP(E14,'Research data'!G10:S10,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E14,'Research data'!G10:T10,'Research data'!G$3:T$3)</f>
         <v>Techneco2</v>
       </c>
       <c r="J14" s="37"/>
@@ -4356,14 +4438,14 @@
         <v>4</v>
       </c>
       <c r="E15" s="113">
-        <f>'Research data'!J11</f>
+        <f>'Research data'!K11</f>
         <v>1</v>
       </c>
       <c r="F15" s="98"/>
       <c r="G15" s="98"/>
       <c r="H15" s="24"/>
       <c r="I15" s="111" t="str">
-        <f>LOOKUP(E15,'Research data'!G11:S11,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E15,'Research data'!G11:T11,'Research data'!G$3:T$3)</f>
         <v>Techneco2</v>
       </c>
       <c r="J15" s="37"/>
@@ -4380,14 +4462,14 @@
       </c>
       <c r="E16" s="113">
         <f>'Research data'!E12</f>
-        <v>1.1314177566107477</v>
+        <v>1.0869565217391304</v>
       </c>
       <c r="F16" s="98"/>
       <c r="G16" s="98"/>
       <c r="H16" s="24"/>
       <c r="I16" s="111" t="str">
-        <f>LOOKUP(E16,'Research data'!G12:S12,'Research data'!G$3:S$3)</f>
-        <v>TNO</v>
+        <f>LOOKUP(E16,'Research data'!G12:T12,'Research data'!G$3:T$3)</f>
+        <v>TNO1</v>
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="102"/>
@@ -4409,7 +4491,7 @@
       <c r="G17" s="98"/>
       <c r="H17" s="24"/>
       <c r="I17" s="111" t="str">
-        <f>LOOKUP(E17,'Research data'!G13:S13,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E17,'Research data'!G13:T13,'Research data'!G$3:T$3)</f>
         <v>Ecofys</v>
       </c>
       <c r="J17" s="37"/>
@@ -4432,7 +4514,7 @@
       <c r="G18" s="98"/>
       <c r="H18" s="24"/>
       <c r="I18" s="111" t="str">
-        <f>LOOKUP(E18,'Research data'!G14:S14,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E18,'Research data'!G14:T14,'Research data'!G$3:T$3)</f>
         <v>Ecofys</v>
       </c>
       <c r="J18" s="37"/>
@@ -4455,7 +4537,7 @@
       <c r="G19" s="98"/>
       <c r="H19" s="24"/>
       <c r="I19" s="111" t="str">
-        <f>LOOKUP(E19,'Research data'!G15:S15,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E19,'Research data'!G15:T15,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J19" s="37"/>
@@ -4478,7 +4560,7 @@
       <c r="G20" s="98"/>
       <c r="H20" s="24"/>
       <c r="I20" s="111" t="str">
-        <f>LOOKUP(E20,'Research data'!G16:S16,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E20,'Research data'!G16:T16,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J20" s="37"/>
@@ -4501,7 +4583,7 @@
       <c r="G21" s="98"/>
       <c r="H21" s="24"/>
       <c r="I21" s="111" t="str">
-        <f>LOOKUP(E21,'Research data'!G17:S17,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E21,'Research data'!G17:T17,'Research data'!G$3:T$3)</f>
         <v>Ecofys</v>
       </c>
       <c r="J21" s="37"/>
@@ -4524,7 +4606,7 @@
       <c r="G22" s="98"/>
       <c r="H22" s="24"/>
       <c r="I22" s="111" t="str">
-        <f>LOOKUP(E22,'Research data'!G18:S18,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E22,'Research data'!G18:T18,'Research data'!G$3:T$3)</f>
         <v>Techneco</v>
       </c>
       <c r="J22" s="37"/>
@@ -4547,7 +4629,7 @@
       <c r="G23" s="98"/>
       <c r="H23" s="98"/>
       <c r="I23" s="111" t="str">
-        <f>LOOKUP(E23,'Research data'!G19:S19,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E23,'Research data'!G19:T19,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J23" s="101"/>
@@ -4570,7 +4652,7 @@
       <c r="G24" s="98"/>
       <c r="H24" s="98"/>
       <c r="I24" s="111" t="str">
-        <f>LOOKUP(E24,'Research data'!G20:S20,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E24,'Research data'!G20:T20,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J24" s="101"/>
@@ -4593,7 +4675,7 @@
       <c r="G25" s="98"/>
       <c r="H25" s="98"/>
       <c r="I25" s="111" t="str">
-        <f>LOOKUP(E25,'Research data'!G21:S21,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E25,'Research data'!G21:T21,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J25" s="101"/>
@@ -4616,7 +4698,7 @@
       <c r="G26" s="98"/>
       <c r="H26" s="98"/>
       <c r="I26" s="111" t="str">
-        <f>LOOKUP(E26,'Research data'!G22:S22,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E26,'Research data'!G22:T22,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J26" s="101"/>
@@ -4639,7 +4721,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="111" t="str">
-        <f>LOOKUP(E27,'Research data'!G23:S23,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E27,'Research data'!G23:T23,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J27" s="85"/>
@@ -4661,7 +4743,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="111" t="str">
-        <f>LOOKUP(E28,'Research data'!G24:S24,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E28,'Research data'!G24:T24,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J28" s="85"/>
@@ -4685,7 +4767,7 @@
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="111" t="str">
-        <f>LOOKUP(E29,'Research data'!G25:S25,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E29,'Research data'!G25:T25,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J29" s="85"/>
@@ -4709,7 +4791,7 @@
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="111" t="str">
-        <f>LOOKUP(E30,'Research data'!G26:S26,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E30,'Research data'!G26:T26,'Research data'!G$3:T$3)</f>
         <v>Techneco2</v>
       </c>
       <c r="J30" s="85"/>
@@ -4757,7 +4839,7 @@
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="111" t="str">
-        <f>LOOKUP(E33,'Research data'!G29:S29,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E33,'Research data'!G29:T29,'Research data'!G$3:T$3)</f>
         <v>CE Delft (CEGOIA)</v>
       </c>
       <c r="J33" s="85"/>
@@ -4780,7 +4862,7 @@
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="111" t="str">
-        <f>LOOKUP(E34,'Research data'!G30:S30,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E34,'Research data'!G30:T30,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J34" s="85"/>
@@ -4803,7 +4885,7 @@
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="111" t="str">
-        <f>LOOKUP(E35,'Research data'!G31:S31,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E35,'Research data'!G31:T31,'Research data'!G$3:T$3)</f>
         <v>DHPA</v>
       </c>
       <c r="J35" s="85"/>
@@ -4826,7 +4908,7 @@
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="111" t="str">
-        <f>LOOKUP(E36,'Research data'!G32:S32,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E36,'Research data'!G32:T32,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J36" s="85"/>
@@ -4849,7 +4931,7 @@
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="111" t="str">
-        <f>LOOKUP(E37,'Research data'!G33:S33,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E37,'Research data'!G33:T33,'Research data'!G$3:T$3)</f>
         <v>DHPA</v>
       </c>
       <c r="J37" s="85"/>
@@ -4872,7 +4954,7 @@
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="111" t="str">
-        <f>LOOKUP(E38,'Research data'!G34:S34,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E38,'Research data'!G34:T34,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J38" s="85"/>
@@ -4895,7 +4977,7 @@
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="111" t="str">
-        <f>LOOKUP(E39,'Research data'!G35:S35,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E39,'Research data'!G35:T35,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J39" s="85"/>
@@ -4916,7 +4998,7 @@
         <v>21</v>
       </c>
       <c r="H40" s="28"/>
-      <c r="I40" s="247" t="s">
+      <c r="I40" s="246" t="s">
         <v>230</v>
       </c>
       <c r="J40" s="85"/>
@@ -4937,7 +5019,7 @@
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="111" t="str">
-        <f>LOOKUP(E41,'Research data'!G36:S36,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E41,'Research data'!G36:T36,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J41" s="85"/>
@@ -4958,7 +5040,7 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="137" t="str">
-        <f>'Research data'!R3</f>
+        <f>'Research data'!S3</f>
         <v>CE Delft (CEGOIA)</v>
       </c>
       <c r="J42" s="85"/>
@@ -5005,7 +5087,7 @@
       </c>
       <c r="H45" s="28"/>
       <c r="I45" s="111" t="str">
-        <f>LOOKUP(E45,'Research data'!G40:S40,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E45,'Research data'!G40:T40,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J45" s="85"/>
@@ -5028,7 +5110,7 @@
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="111" t="str">
-        <f>LOOKUP(E46,'Research data'!G41:S41,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E46,'Research data'!G41:T41,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J46" s="85"/>
@@ -5051,7 +5133,7 @@
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="111" t="str">
-        <f>LOOKUP(E47,'Research data'!G42:S42,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E47,'Research data'!G42:T42,'Research data'!G$3:T$3)</f>
         <v>DHPA</v>
       </c>
       <c r="J47" s="85"/>
@@ -5072,7 +5154,7 @@
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="111" t="str">
-        <f>LOOKUP(E48,'Research data'!G43:S43,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E48,'Research data'!G43:T43,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J48" s="85"/>
@@ -5093,7 +5175,7 @@
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="111" t="str">
-        <f>LOOKUP(E49,'Research data'!G44:S44,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E49,'Research data'!G44:T44,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J49" s="85"/>
@@ -5114,7 +5196,7 @@
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="111" t="str">
-        <f>LOOKUP(E50,'Research data'!G45:S45,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E50,'Research data'!G45:T45,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J50" s="85"/>
@@ -5135,7 +5217,7 @@
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="111" t="str">
-        <f>LOOKUP(E51,'Research data'!G46:S46,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E51,'Research data'!G46:T46,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J51" s="85"/>
@@ -5156,7 +5238,7 @@
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="111" t="str">
-        <f>LOOKUP(E52,'Research data'!G47:S47,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E52,'Research data'!G47:T47,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J52" s="85"/>
@@ -5177,7 +5259,7 @@
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="111" t="str">
-        <f>LOOKUP(E53,'Research data'!G48:S48,'Research data'!G$3:S$3)</f>
+        <f>LOOKUP(E53,'Research data'!G48:T48,'Research data'!G$3:T$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J53" s="85"/>
@@ -5210,10 +5292,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -5224,22 +5306,22 @@
     <col min="5" max="5" width="6.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" style="54" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="55" customWidth="1"/>
-    <col min="16" max="18" width="8.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.42578125" style="55" customWidth="1"/>
-    <col min="20" max="20" width="97.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.7109375" style="54"/>
+    <col min="8" max="9" width="5.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="55" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="55" customWidth="1"/>
+    <col min="17" max="19" width="8.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.42578125" style="55" customWidth="1"/>
+    <col min="21" max="21" width="97.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.7109375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="17" thickBot="1"/>
-    <row r="2" spans="2:20">
+    <row r="1" spans="2:21" ht="17" thickBot="1"/>
+    <row r="2" spans="2:21">
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -5258,9 +5340,10 @@
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
       <c r="S2" s="58"/>
-      <c r="T2" s="141"/>
-    </row>
-    <row r="3" spans="2:20" s="18" customFormat="1">
+      <c r="T2" s="58"/>
+      <c r="U2" s="141"/>
+    </row>
+    <row r="3" spans="2:21" s="18" customFormat="1">
       <c r="B3" s="17"/>
       <c r="C3" s="88" t="s">
         <v>77</v>
@@ -5276,56 +5359,58 @@
         <f>Sources!E39</f>
         <v>Quintel WD</v>
       </c>
-      <c r="H3" s="53" t="str">
-        <f>Sources!E16</f>
-        <v>TNO</v>
-      </c>
-      <c r="I3" s="53" t="str">
+      <c r="H3" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="53" t="str">
         <f>Sources!E8</f>
         <v>Techneco</v>
       </c>
-      <c r="J3" s="52" t="str">
+      <c r="K3" s="52" t="str">
         <f>Sources!E14</f>
         <v>Techneco2</v>
       </c>
-      <c r="K3" s="52" t="str">
+      <c r="L3" s="52" t="str">
         <f>Sources!E12</f>
         <v>ODE &amp; VEA</v>
       </c>
-      <c r="L3" s="52" t="str">
+      <c r="M3" s="52" t="str">
         <f>Sources!E17</f>
         <v>Ecofys</v>
       </c>
-      <c r="M3" s="52" t="str">
+      <c r="N3" s="52" t="str">
         <f>Sources!E20</f>
         <v>ISSO 72 and Quintel calc</v>
       </c>
-      <c r="N3" s="52" t="str">
+      <c r="O3" s="52" t="str">
         <f>Sources!E22</f>
         <v>DHPA</v>
       </c>
-      <c r="O3" s="52" t="str">
+      <c r="P3" s="52" t="str">
         <f>Sources!E37</f>
         <v>Warmtepompforum</v>
       </c>
-      <c r="P3" s="52" t="str">
+      <c r="Q3" s="52" t="str">
         <f>Sources!E33</f>
         <v>Installand</v>
       </c>
-      <c r="Q3" s="52" t="str">
+      <c r="R3" s="52" t="str">
         <f>Sources!E35</f>
         <v>Nefit</v>
       </c>
-      <c r="R3" s="52" t="str">
+      <c r="S3" s="52" t="str">
         <f>Sources!E23</f>
         <v>CE Delft (CEGOIA)</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="142" t="s">
+      <c r="T3" s="12"/>
+      <c r="U3" s="142" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:21">
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
@@ -5333,8 +5418,8 @@
       <c r="F4" s="61"/>
       <c r="G4" s="86"/>
       <c r="H4" s="86"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="87"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="87"/>
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
@@ -5344,9 +5429,10 @@
       <c r="Q4" s="87"/>
       <c r="R4" s="87"/>
       <c r="S4" s="87"/>
-      <c r="T4" s="143"/>
-    </row>
-    <row r="5" spans="2:20" ht="17" thickBot="1">
+      <c r="T4" s="87"/>
+      <c r="U4" s="143"/>
+    </row>
+    <row r="5" spans="2:21" ht="17" thickBot="1">
       <c r="B5" s="59"/>
       <c r="C5" s="26" t="s">
         <v>76</v>
@@ -5367,29 +5453,30 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="143"/>
-    </row>
-    <row r="6" spans="2:20" ht="17" thickBot="1">
+      <c r="T5" s="9"/>
+      <c r="U5" s="143"/>
+    </row>
+    <row r="6" spans="2:21" ht="17" thickBot="1">
       <c r="B6" s="59"/>
-      <c r="C6" s="280" t="str">
+      <c r="C6" s="270" t="str">
         <f>Dashboard!C10</f>
         <v>input.ambient_heat</v>
       </c>
-      <c r="D6" s="280" t="str">
+      <c r="D6" s="270" t="str">
         <f>Dashboard!D10</f>
         <v>-</v>
       </c>
-      <c r="E6" s="281">
+      <c r="E6" s="271">
         <f>G6</f>
         <v>0.63239875389408096</v>
       </c>
-      <c r="F6" s="282"/>
-      <c r="G6" s="281">
-        <f>Notes!E92</f>
+      <c r="F6" s="272"/>
+      <c r="G6" s="271">
+        <f>Notes!E100</f>
         <v>0.63239875389408096</v>
       </c>
       <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
+      <c r="I6" s="151"/>
       <c r="J6" s="152"/>
       <c r="K6" s="152"/>
       <c r="L6" s="152"/>
@@ -5400,32 +5487,33 @@
       <c r="Q6" s="152"/>
       <c r="R6" s="152"/>
       <c r="S6" s="152"/>
-      <c r="T6" s="226" t="s">
+      <c r="T6" s="152"/>
+      <c r="U6" s="225" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="17" thickBot="1">
+    <row r="7" spans="2:21" ht="17" thickBot="1">
       <c r="B7" s="59"/>
-      <c r="C7" s="280" t="str">
+      <c r="C7" s="270" t="str">
         <f>Dashboard!C11</f>
         <v>input.electricity</v>
       </c>
-      <c r="D7" s="280" t="str">
+      <c r="D7" s="270" t="str">
         <f>Dashboard!D11</f>
         <v>-</v>
       </c>
-      <c r="E7" s="281">
+      <c r="E7" s="271">
         <f t="shared" ref="E7" si="0">G7</f>
         <v>0.18068535825545171</v>
       </c>
       <c r="F7" s="153"/>
-      <c r="G7" s="281">
-        <f>Notes!E93</f>
+      <c r="G7" s="271">
+        <f>Notes!E101</f>
         <v>0.18068535825545171</v>
       </c>
       <c r="H7" s="151"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="152"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="154"/>
       <c r="K7" s="152"/>
       <c r="L7" s="152"/>
       <c r="M7" s="152"/>
@@ -5434,66 +5522,68 @@
       <c r="P7" s="152"/>
       <c r="Q7" s="152"/>
       <c r="R7" s="152"/>
-      <c r="S7" s="154"/>
-      <c r="T7" s="226" t="s">
+      <c r="S7" s="152"/>
+      <c r="T7" s="154"/>
+      <c r="U7" s="225" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="2:20" s="219" customFormat="1" ht="17" thickBot="1">
+    <row r="8" spans="2:21" s="219" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="220"/>
-      <c r="C8" s="280" t="str">
+      <c r="C8" s="270" t="str">
         <f>Dashboard!C12</f>
         <v>input.hydrogen</v>
       </c>
-      <c r="D8" s="280" t="str">
+      <c r="D8" s="270" t="str">
         <f>Dashboard!D12</f>
         <v>-</v>
       </c>
-      <c r="E8" s="281">
+      <c r="E8" s="271">
         <f>G8</f>
         <v>0.18691588785046728</v>
       </c>
       <c r="F8" s="153"/>
-      <c r="G8" s="281">
-        <f>Notes!E49</f>
+      <c r="G8" s="271">
+        <f>Notes!E57</f>
         <v>0.18691588785046728</v>
       </c>
-      <c r="H8" s="223"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="225"/>
-      <c r="L8" s="225"/>
-      <c r="M8" s="225"/>
-      <c r="N8" s="225"/>
-      <c r="O8" s="225"/>
-      <c r="P8" s="225"/>
-      <c r="Q8" s="225"/>
-      <c r="R8" s="225"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="224"/>
+      <c r="P8" s="224"/>
+      <c r="Q8" s="224"/>
+      <c r="R8" s="224"/>
       <c r="S8" s="224"/>
-      <c r="T8" s="226" t="s">
+      <c r="T8" s="223"/>
+      <c r="U8" s="225" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="17" thickBot="1">
+    <row r="9" spans="2:21" ht="17" thickBot="1">
       <c r="B9" s="59"/>
-      <c r="C9" s="280" t="str">
+      <c r="C9" s="270" t="str">
         <f>Dashboard!C13</f>
         <v>output.cooling</v>
       </c>
-      <c r="D9" s="280" t="str">
+      <c r="D9" s="270" t="str">
         <f>Dashboard!D13</f>
         <v>-</v>
       </c>
-      <c r="E9" s="283">
+      <c r="E9" s="273">
         <f>G9</f>
         <v>0</v>
       </c>
       <c r="F9" s="153"/>
-      <c r="G9" s="281">
+      <c r="G9" s="271">
         <v>0</v>
       </c>
       <c r="H9" s="151"/>
-      <c r="I9" s="154"/>
+      <c r="I9" s="151"/>
       <c r="J9" s="154"/>
       <c r="K9" s="154"/>
       <c r="L9" s="154"/>
@@ -5504,33 +5594,34 @@
       <c r="Q9" s="154"/>
       <c r="R9" s="154"/>
       <c r="S9" s="154"/>
-      <c r="T9" s="143" t="s">
+      <c r="T9" s="154"/>
+      <c r="U9" s="143" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="17" thickBot="1">
+    <row r="10" spans="2:21" ht="17" thickBot="1">
       <c r="B10" s="59"/>
-      <c r="C10" s="280" t="str">
+      <c r="C10" s="270" t="str">
         <f>Dashboard!C14</f>
         <v>output.useable_heat.ambient_heat</v>
       </c>
-      <c r="D10" s="280" t="str">
+      <c r="D10" s="270" t="str">
         <f>Dashboard!D14</f>
         <v>-</v>
       </c>
-      <c r="E10" s="284">
-        <f>J10</f>
+      <c r="E10" s="274">
+        <f>K10</f>
         <v>1</v>
       </c>
       <c r="F10" s="153"/>
-      <c r="G10" s="282"/>
+      <c r="G10" s="272"/>
       <c r="H10" s="151"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="150">
-        <f>Notes!E97</f>
+      <c r="I10" s="151"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="150">
+        <f>Notes!E105</f>
         <v>1</v>
       </c>
-      <c r="K10" s="154"/>
       <c r="L10" s="154"/>
       <c r="M10" s="154"/>
       <c r="N10" s="154"/>
@@ -5539,31 +5630,32 @@
       <c r="Q10" s="154"/>
       <c r="R10" s="154"/>
       <c r="S10" s="154"/>
-      <c r="T10" s="143"/>
-    </row>
-    <row r="11" spans="2:20" ht="17" thickBot="1">
+      <c r="T10" s="154"/>
+      <c r="U10" s="143"/>
+    </row>
+    <row r="11" spans="2:21" ht="17" thickBot="1">
       <c r="B11" s="59"/>
-      <c r="C11" s="280" t="str">
+      <c r="C11" s="270" t="str">
         <f>Dashboard!C15</f>
         <v>output.useable_heat.electricity</v>
       </c>
-      <c r="D11" s="280" t="str">
+      <c r="D11" s="270" t="str">
         <f>Dashboard!D15</f>
         <v>-</v>
       </c>
-      <c r="E11" s="284">
-        <f>J11</f>
+      <c r="E11" s="274">
+        <f>K11</f>
         <v>1</v>
       </c>
       <c r="F11" s="153"/>
-      <c r="G11" s="282"/>
+      <c r="G11" s="272"/>
       <c r="H11" s="151"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="150">
-        <f>Notes!E98</f>
+      <c r="I11" s="151"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="150">
+        <f>Notes!E106</f>
         <v>1</v>
       </c>
-      <c r="K11" s="154"/>
       <c r="L11" s="154"/>
       <c r="M11" s="154"/>
       <c r="N11" s="154"/>
@@ -5572,143 +5664,151 @@
       <c r="Q11" s="154"/>
       <c r="R11" s="154"/>
       <c r="S11" s="154"/>
-      <c r="T11" s="143"/>
-    </row>
-    <row r="12" spans="2:20" s="242" customFormat="1" ht="17" thickBot="1">
-      <c r="B12" s="243"/>
-      <c r="C12" s="280" t="str">
+      <c r="T11" s="154"/>
+      <c r="U11" s="143"/>
+    </row>
+    <row r="12" spans="2:21" s="241" customFormat="1" ht="17" thickBot="1">
+      <c r="B12" s="242"/>
+      <c r="C12" s="270" t="str">
         <f>Dashboard!C16</f>
         <v>output.useable_heat.hydrogen</v>
       </c>
-      <c r="D12" s="280" t="str">
+      <c r="D12" s="270" t="str">
         <f>Dashboard!D16</f>
         <v>-</v>
       </c>
-      <c r="E12" s="281">
+      <c r="E12" s="271">
         <f>H12</f>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="F12" s="272"/>
+      <c r="G12" s="275"/>
+      <c r="H12" s="244">
+        <f>Notes!E18</f>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="I12" s="244">
+        <f>Notes!E69</f>
         <v>1.1314177566107477</v>
       </c>
-      <c r="F12" s="282"/>
-      <c r="G12" s="285"/>
-      <c r="H12" s="245">
-        <f>Notes!E61</f>
-        <v>1.1314177566107477</v>
-      </c>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="244"/>
-      <c r="M12" s="244"/>
-      <c r="N12" s="244"/>
-      <c r="O12" s="244"/>
-      <c r="P12" s="244"/>
-      <c r="Q12" s="244"/>
-      <c r="R12" s="244"/>
-      <c r="S12" s="244"/>
-      <c r="T12" s="246"/>
-    </row>
-    <row r="13" spans="2:20" ht="17" thickBot="1">
+      <c r="J12" s="243"/>
+      <c r="K12" s="243"/>
+      <c r="L12" s="243"/>
+      <c r="M12" s="243"/>
+      <c r="N12" s="243"/>
+      <c r="O12" s="243"/>
+      <c r="P12" s="243"/>
+      <c r="Q12" s="243"/>
+      <c r="R12" s="243"/>
+      <c r="S12" s="243"/>
+      <c r="T12" s="243"/>
+      <c r="U12" s="245"/>
+    </row>
+    <row r="13" spans="2:21" ht="17" thickBot="1">
       <c r="B13" s="59"/>
-      <c r="C13" s="280" t="str">
+      <c r="C13" s="270" t="str">
         <f>Dashboard!C17</f>
         <v>fever.base_cop</v>
       </c>
-      <c r="D13" s="280" t="str">
+      <c r="D13" s="270" t="str">
         <f>Dashboard!D17</f>
         <v>-</v>
       </c>
-      <c r="E13" s="281">
-        <f>L13</f>
+      <c r="E13" s="271">
+        <f>M13</f>
         <v>2.3233333333333333</v>
       </c>
-      <c r="F13" s="282"/>
-      <c r="G13" s="286"/>
+      <c r="F13" s="272"/>
+      <c r="G13" s="276"/>
       <c r="H13" s="159"/>
-      <c r="I13" s="157"/>
+      <c r="I13" s="159"/>
       <c r="J13" s="157"/>
       <c r="K13" s="157"/>
-      <c r="L13" s="160">
-        <f>Notes!E249</f>
+      <c r="L13" s="157"/>
+      <c r="M13" s="160">
+        <f>Notes!E257</f>
         <v>2.3233333333333333</v>
       </c>
-      <c r="M13" s="157"/>
       <c r="N13" s="157"/>
       <c r="O13" s="157"/>
       <c r="P13" s="157"/>
       <c r="Q13" s="157"/>
       <c r="R13" s="157"/>
       <c r="S13" s="157"/>
-      <c r="T13" s="143"/>
-    </row>
-    <row r="14" spans="2:20" ht="17" thickBot="1">
+      <c r="T13" s="157"/>
+      <c r="U13" s="143"/>
+    </row>
+    <row r="14" spans="2:21" ht="17" thickBot="1">
       <c r="B14" s="59"/>
-      <c r="C14" s="280" t="str">
+      <c r="C14" s="270" t="str">
         <f>Dashboard!C18</f>
         <v>fever.capacity.electricity</v>
       </c>
-      <c r="D14" s="280" t="str">
+      <c r="D14" s="270" t="str">
         <f>Dashboard!D18</f>
         <v>-</v>
       </c>
-      <c r="E14" s="281">
-        <f>L14</f>
+      <c r="E14" s="271">
+        <f>M14</f>
         <v>1.8327326043130307E-3</v>
       </c>
-      <c r="F14" s="282"/>
-      <c r="G14" s="286"/>
+      <c r="F14" s="272"/>
+      <c r="G14" s="276"/>
       <c r="H14" s="159"/>
-      <c r="I14" s="157"/>
+      <c r="I14" s="159"/>
       <c r="J14" s="157"/>
       <c r="K14" s="157"/>
-      <c r="L14" s="161">
-        <f>Notes!E266</f>
+      <c r="L14" s="157"/>
+      <c r="M14" s="161">
+        <f>Notes!E274</f>
         <v>1.8327326043130307E-3</v>
       </c>
-      <c r="M14" s="157"/>
       <c r="N14" s="157"/>
       <c r="O14" s="157"/>
       <c r="P14" s="157"/>
       <c r="Q14" s="157"/>
       <c r="R14" s="157"/>
       <c r="S14" s="157"/>
-      <c r="T14" s="143"/>
-    </row>
-    <row r="15" spans="2:20" s="219" customFormat="1" ht="17" thickBot="1">
+      <c r="T14" s="157"/>
+      <c r="U14" s="143"/>
+    </row>
+    <row r="15" spans="2:21" s="219" customFormat="1" ht="17" thickBot="1">
       <c r="B15" s="220"/>
-      <c r="C15" s="280" t="str">
+      <c r="C15" s="270" t="str">
         <f>Dashboard!C19</f>
         <v>fever.capacity.hydrogen</v>
       </c>
-      <c r="D15" s="280" t="str">
+      <c r="D15" s="270" t="str">
         <f>Dashboard!D19</f>
         <v>-</v>
       </c>
-      <c r="E15" s="281">
+      <c r="E15" s="271">
         <f>G15</f>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F15" s="282"/>
-      <c r="G15" s="287">
-        <f>Notes!F236</f>
+      <c r="F15" s="272"/>
+      <c r="G15" s="277">
+        <f>Notes!F244</f>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H15" s="228"/>
+      <c r="H15" s="227"/>
       <c r="I15" s="227"/>
-      <c r="J15" s="227"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="227"/>
-      <c r="O15" s="227"/>
-      <c r="P15" s="227"/>
-      <c r="Q15" s="227"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="227"/>
-      <c r="T15" s="226" t="s">
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="226"/>
+      <c r="P15" s="226"/>
+      <c r="Q15" s="226"/>
+      <c r="R15" s="226"/>
+      <c r="S15" s="226"/>
+      <c r="T15" s="226"/>
+      <c r="U15" s="225" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="17" thickBot="1">
+    <row r="16" spans="2:21" ht="17" thickBot="1">
       <c r="B16" s="59"/>
       <c r="C16" s="98" t="str">
         <f>Dashboard!C20</f>
@@ -5724,11 +5824,11 @@
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="158">
-        <f>Notes!F214</f>
+        <f>Notes!F222</f>
         <v>2.6002380221130221</v>
       </c>
       <c r="H16" s="162"/>
-      <c r="I16" s="157"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="157"/>
       <c r="K16" s="157"/>
       <c r="L16" s="157"/>
@@ -5739,11 +5839,12 @@
       <c r="Q16" s="157"/>
       <c r="R16" s="157"/>
       <c r="S16" s="157"/>
-      <c r="T16" s="143"/>
-    </row>
-    <row r="17" spans="1:20" s="219" customFormat="1" ht="17" thickBot="1">
+      <c r="T16" s="157"/>
+      <c r="U16" s="143"/>
+    </row>
+    <row r="17" spans="1:21" s="219" customFormat="1" ht="17" thickBot="1">
       <c r="B17" s="220"/>
-      <c r="C17" s="262" t="str">
+      <c r="C17" s="261" t="str">
         <f>Dashboard!C21</f>
         <v>fever.cop_per_degree</v>
       </c>
@@ -5751,30 +5852,31 @@
         <f>Dashboard!D21</f>
         <v>-</v>
       </c>
-      <c r="E17" s="258">
-        <f>L17</f>
+      <c r="E17" s="257">
+        <f>M17</f>
         <v>5.7833333333333327E-2</v>
       </c>
-      <c r="F17" s="259"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="260"/>
-      <c r="I17" s="260"/>
-      <c r="J17" s="260"/>
-      <c r="K17" s="260"/>
-      <c r="L17" s="261">
-        <f>Notes!E250</f>
+      <c r="F17" s="258"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="260">
+        <f>Notes!E258</f>
         <v>5.7833333333333327E-2</v>
       </c>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="227"/>
-      <c r="Q17" s="227"/>
-      <c r="R17" s="227"/>
-      <c r="S17" s="227"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="226"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
       <c r="T17" s="226"/>
-    </row>
-    <row r="18" spans="1:20" ht="17" thickBot="1">
+      <c r="U17" s="225"/>
+    </row>
+    <row r="18" spans="1:21" ht="17" thickBot="1">
       <c r="B18" s="59"/>
       <c r="C18" s="98" t="str">
         <f>Dashboard!C22</f>
@@ -5785,38 +5887,39 @@
         <v>MWh</v>
       </c>
       <c r="E18" s="156">
-        <f>I18</f>
+        <f>J18</f>
         <v>0</v>
       </c>
       <c r="F18" s="151"/>
       <c r="G18" s="151"/>
       <c r="H18" s="162"/>
-      <c r="I18" s="155">
-        <f>Notes!E186</f>
+      <c r="I18" s="162"/>
+      <c r="J18" s="155">
+        <f>Notes!E194</f>
         <v>0</v>
       </c>
-      <c r="J18" s="157"/>
       <c r="K18" s="157"/>
       <c r="L18" s="157"/>
-      <c r="M18" s="161">
-        <f>Notes!E280</f>
+      <c r="M18" s="157"/>
+      <c r="N18" s="161">
+        <f>Notes!E288</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="N18" s="155">
-        <f>Notes!E250</f>
+      <c r="O18" s="155">
+        <f>Notes!E258</f>
         <v>5.7833333333333327E-2</v>
       </c>
-      <c r="O18" s="161">
-        <f>Notes!E288</f>
+      <c r="P18" s="161">
+        <f>Notes!E296</f>
         <v>3.3E-3</v>
       </c>
-      <c r="P18" s="157"/>
       <c r="Q18" s="157"/>
       <c r="R18" s="157"/>
       <c r="S18" s="157"/>
-      <c r="T18" s="143"/>
-    </row>
-    <row r="19" spans="1:20" ht="17" thickBot="1">
+      <c r="T18" s="157"/>
+      <c r="U18" s="143"/>
+    </row>
+    <row r="19" spans="1:21" ht="17" thickBot="1">
       <c r="B19" s="59"/>
       <c r="C19" s="98" t="str">
         <f>Dashboard!C23</f>
@@ -5846,11 +5949,12 @@
       <c r="Q19" s="157"/>
       <c r="R19" s="157"/>
       <c r="S19" s="157"/>
-      <c r="T19" s="143" t="s">
+      <c r="T19" s="157"/>
+      <c r="U19" s="143" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="17" thickBot="1">
+    <row r="20" spans="1:21" ht="17" thickBot="1">
       <c r="B20" s="59"/>
       <c r="C20" s="98" t="str">
         <f>Dashboard!C24</f>
@@ -5869,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="157"/>
-      <c r="I20" s="154"/>
+      <c r="I20" s="157"/>
       <c r="J20" s="154"/>
       <c r="K20" s="154"/>
       <c r="L20" s="154"/>
@@ -5880,11 +5984,12 @@
       <c r="Q20" s="154"/>
       <c r="R20" s="154"/>
       <c r="S20" s="154"/>
-      <c r="T20" s="143" t="s">
+      <c r="T20" s="154"/>
+      <c r="U20" s="143" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="17" thickBot="1">
+    <row r="21" spans="1:21" ht="17" thickBot="1">
       <c r="B21" s="59"/>
       <c r="C21" s="98" t="str">
         <f>Dashboard!C25</f>
@@ -5903,9 +6008,9 @@
         <v>0</v>
       </c>
       <c r="H21" s="157"/>
-      <c r="I21" s="159"/>
+      <c r="I21" s="157"/>
       <c r="J21" s="159"/>
-      <c r="K21" s="152"/>
+      <c r="K21" s="159"/>
       <c r="L21" s="152"/>
       <c r="M21" s="152"/>
       <c r="N21" s="152"/>
@@ -5914,11 +6019,12 @@
       <c r="Q21" s="152"/>
       <c r="R21" s="152"/>
       <c r="S21" s="152"/>
-      <c r="T21" s="143" t="s">
+      <c r="T21" s="152"/>
+      <c r="U21" s="143" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="17" thickBot="1">
+    <row r="22" spans="1:21" ht="17" thickBot="1">
       <c r="B22" s="59"/>
       <c r="C22" s="98" t="str">
         <f>Dashboard!C26</f>
@@ -5937,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="157"/>
-      <c r="I22" s="152"/>
+      <c r="I22" s="157"/>
       <c r="J22" s="152"/>
       <c r="K22" s="152"/>
       <c r="L22" s="152"/>
@@ -5948,11 +6054,12 @@
       <c r="Q22" s="152"/>
       <c r="R22" s="152"/>
       <c r="S22" s="152"/>
-      <c r="T22" s="143" t="s">
+      <c r="T22" s="152"/>
+      <c r="U22" s="143" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="17" thickBot="1">
+    <row r="23" spans="1:21" ht="17" thickBot="1">
       <c r="B23" s="59"/>
       <c r="C23" s="98" t="str">
         <f>Dashboard!C27</f>
@@ -5971,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="157"/>
-      <c r="I23" s="159"/>
+      <c r="I23" s="157"/>
       <c r="J23" s="159"/>
       <c r="K23" s="159"/>
       <c r="L23" s="159"/>
@@ -5982,11 +6089,12 @@
       <c r="Q23" s="159"/>
       <c r="R23" s="159"/>
       <c r="S23" s="159"/>
-      <c r="T23" s="143" t="s">
+      <c r="T23" s="159"/>
+      <c r="U23" s="143" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="17" thickBot="1">
+    <row r="24" spans="1:21" ht="17" thickBot="1">
       <c r="B24" s="59"/>
       <c r="C24" s="98" t="str">
         <f>Dashboard!C28</f>
@@ -6005,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="157"/>
-      <c r="I24" s="159"/>
+      <c r="I24" s="157"/>
       <c r="J24" s="159"/>
       <c r="K24" s="159"/>
       <c r="L24" s="159"/>
@@ -6016,11 +6124,12 @@
       <c r="Q24" s="159"/>
       <c r="R24" s="159"/>
       <c r="S24" s="159"/>
-      <c r="T24" s="143" t="s">
+      <c r="T24" s="159"/>
+      <c r="U24" s="143" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="17" thickBot="1">
+    <row r="25" spans="1:21" ht="17" thickBot="1">
       <c r="B25" s="59"/>
       <c r="C25" s="98" t="str">
         <f>Dashboard!C29</f>
@@ -6049,11 +6158,12 @@
       <c r="Q25" s="159"/>
       <c r="R25" s="159"/>
       <c r="S25" s="159"/>
-      <c r="T25" s="143" t="s">
+      <c r="T25" s="159"/>
+      <c r="U25" s="143" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="17" thickBot="1">
+    <row r="26" spans="1:21" ht="17" thickBot="1">
       <c r="B26" s="59"/>
       <c r="C26" s="98" t="str">
         <f>Dashboard!C30</f>
@@ -6064,18 +6174,18 @@
         <v>MW</v>
       </c>
       <c r="E26" s="161">
-        <f>J26</f>
+        <f>K26</f>
         <v>4.9000000000000007E-3</v>
       </c>
       <c r="F26" s="165"/>
       <c r="G26" s="165"/>
       <c r="H26" s="165"/>
       <c r="I26" s="165"/>
-      <c r="J26" s="161">
-        <f>Notes!E88</f>
+      <c r="J26" s="165"/>
+      <c r="K26" s="161">
+        <f>Notes!E96</f>
         <v>4.9000000000000007E-3</v>
       </c>
-      <c r="K26" s="166"/>
       <c r="L26" s="166"/>
       <c r="M26" s="166"/>
       <c r="N26" s="166"/>
@@ -6083,12 +6193,13 @@
       <c r="P26" s="166"/>
       <c r="Q26" s="166"/>
       <c r="R26" s="166"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="143" t="s">
+      <c r="S26" s="166"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="143" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="B27" s="59"/>
       <c r="C27" s="62"/>
       <c r="D27" s="63"/>
@@ -6107,9 +6218,10 @@
       <c r="Q27" s="144"/>
       <c r="R27" s="144"/>
       <c r="S27" s="144"/>
-      <c r="T27" s="143"/>
-    </row>
-    <row r="28" spans="1:20" ht="17" thickBot="1">
+      <c r="T27" s="144"/>
+      <c r="U27" s="143"/>
+    </row>
+    <row r="28" spans="1:21" ht="17" thickBot="1">
       <c r="B28" s="59"/>
       <c r="C28" s="26" t="s">
         <v>78</v>
@@ -6130,9 +6242,10 @@
       <c r="Q28" s="144"/>
       <c r="R28" s="144"/>
       <c r="S28" s="144"/>
-      <c r="T28" s="143"/>
-    </row>
-    <row r="29" spans="1:20" ht="17" thickBot="1">
+      <c r="T28" s="144"/>
+      <c r="U28" s="143"/>
+    </row>
+    <row r="29" spans="1:21" ht="17" thickBot="1">
       <c r="A29" s="103"/>
       <c r="B29" s="104"/>
       <c r="C29" s="98" t="str">
@@ -6144,14 +6257,14 @@
         <v>euro</v>
       </c>
       <c r="E29" s="155">
-        <f>R29</f>
+        <f>S29</f>
         <v>5500</v>
       </c>
       <c r="F29" s="163"/>
       <c r="G29" s="159"/>
       <c r="H29" s="159"/>
-      <c r="I29" s="233"/>
-      <c r="J29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="232"/>
       <c r="K29" s="159"/>
       <c r="L29" s="159"/>
       <c r="M29" s="159"/>
@@ -6159,16 +6272,17 @@
       <c r="O29" s="159"/>
       <c r="P29" s="159"/>
       <c r="Q29" s="159"/>
-      <c r="R29" s="167">
-        <f>Notes!E327-Notes!E260</f>
+      <c r="R29" s="159"/>
+      <c r="S29" s="167">
+        <f>Notes!E335-Notes!E268</f>
         <v>5500</v>
       </c>
-      <c r="S29" s="159"/>
-      <c r="T29" s="143" t="s">
+      <c r="T29" s="159"/>
+      <c r="U29" s="143" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="17" thickBot="1">
+    <row r="30" spans="1:21" ht="17" thickBot="1">
       <c r="A30" s="103"/>
       <c r="B30" s="104"/>
       <c r="C30" s="98" t="str">
@@ -6185,11 +6299,11 @@
       </c>
       <c r="F30" s="163"/>
       <c r="G30" s="155">
-        <f>I30</f>
+        <f>J30</f>
         <v>0</v>
       </c>
       <c r="H30" s="157"/>
-      <c r="I30" s="159"/>
+      <c r="I30" s="157"/>
       <c r="J30" s="159"/>
       <c r="K30" s="159"/>
       <c r="L30" s="159"/>
@@ -6200,11 +6314,12 @@
       <c r="Q30" s="159"/>
       <c r="R30" s="159"/>
       <c r="S30" s="159"/>
-      <c r="T30" s="143" t="s">
+      <c r="T30" s="159"/>
+      <c r="U30" s="143" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="17" thickBot="1">
+    <row r="31" spans="1:21" ht="17" thickBot="1">
       <c r="A31" s="103"/>
       <c r="B31" s="104"/>
       <c r="C31" s="98" t="str">
@@ -6216,36 +6331,37 @@
         <v>euro</v>
       </c>
       <c r="E31" s="168">
-        <f>N31</f>
+        <f>O31</f>
         <v>1000</v>
       </c>
       <c r="F31" s="163"/>
       <c r="G31" s="159"/>
       <c r="H31" s="159"/>
-      <c r="I31" s="167">
-        <f>Notes!E172</f>
+      <c r="I31" s="159"/>
+      <c r="J31" s="167">
+        <f>Notes!E180</f>
         <v>600</v>
       </c>
-      <c r="J31" s="159"/>
       <c r="K31" s="159"/>
       <c r="L31" s="159"/>
       <c r="M31" s="159"/>
-      <c r="N31" s="169">
-        <f>Notes!E260</f>
+      <c r="N31" s="159"/>
+      <c r="O31" s="169">
+        <f>Notes!E268</f>
         <v>1000</v>
       </c>
-      <c r="O31" s="170"/>
-      <c r="P31" s="159"/>
+      <c r="P31" s="170"/>
       <c r="Q31" s="159"/>
-      <c r="R31" s="167">
+      <c r="R31" s="159"/>
+      <c r="S31" s="167">
         <v>0</v>
       </c>
-      <c r="S31" s="159"/>
-      <c r="T31" s="143" t="s">
+      <c r="T31" s="159"/>
+      <c r="U31" s="143" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="17" thickBot="1">
+    <row r="32" spans="1:21" ht="17" thickBot="1">
       <c r="A32" s="103"/>
       <c r="B32" s="104"/>
       <c r="C32" s="98" t="str">
@@ -6262,26 +6378,27 @@
       </c>
       <c r="F32" s="163"/>
       <c r="G32" s="155">
-        <f>I32</f>
+        <f>J32</f>
         <v>0</v>
       </c>
       <c r="H32" s="157"/>
-      <c r="I32" s="159"/>
+      <c r="I32" s="157"/>
       <c r="J32" s="159"/>
       <c r="K32" s="159"/>
       <c r="L32" s="159"/>
       <c r="M32" s="159"/>
-      <c r="N32" s="170"/>
+      <c r="N32" s="159"/>
       <c r="O32" s="170"/>
-      <c r="P32" s="159"/>
+      <c r="P32" s="170"/>
       <c r="Q32" s="159"/>
       <c r="R32" s="159"/>
       <c r="S32" s="159"/>
-      <c r="T32" s="143" t="s">
+      <c r="T32" s="159"/>
+      <c r="U32" s="143" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="17" thickBot="1">
+    <row r="33" spans="1:21" ht="17" thickBot="1">
       <c r="A33" s="103"/>
       <c r="B33" s="104"/>
       <c r="C33" s="98" t="str">
@@ -6293,7 +6410,7 @@
         <v>euro/year</v>
       </c>
       <c r="E33" s="168">
-        <f>N33</f>
+        <f>O33</f>
         <v>200</v>
       </c>
       <c r="F33" s="163"/>
@@ -6301,26 +6418,27 @@
       <c r="H33" s="159"/>
       <c r="I33" s="159"/>
       <c r="J33" s="159"/>
-      <c r="K33" s="161">
-        <f>Notes!E209</f>
+      <c r="K33" s="159"/>
+      <c r="L33" s="161">
+        <f>Notes!E217</f>
         <v>252.89256198347107</v>
       </c>
-      <c r="L33" s="166"/>
       <c r="M33" s="166"/>
-      <c r="N33" s="168">
-        <f>Notes!E261</f>
+      <c r="N33" s="166"/>
+      <c r="O33" s="168">
+        <f>Notes!E269</f>
         <v>200</v>
       </c>
-      <c r="O33" s="172"/>
-      <c r="P33" s="166"/>
+      <c r="P33" s="172"/>
       <c r="Q33" s="166"/>
-      <c r="R33" s="159"/>
+      <c r="R33" s="166"/>
       <c r="S33" s="159"/>
-      <c r="T33" s="143" t="s">
+      <c r="T33" s="159"/>
+      <c r="U33" s="143" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="17" thickBot="1">
+    <row r="34" spans="1:21" ht="17" thickBot="1">
       <c r="A34" s="103"/>
       <c r="B34" s="104"/>
       <c r="C34" s="98" t="str">
@@ -6337,11 +6455,11 @@
       </c>
       <c r="F34" s="163"/>
       <c r="G34" s="155">
-        <f>I34</f>
+        <f>J34</f>
         <v>0</v>
       </c>
       <c r="H34" s="157"/>
-      <c r="I34" s="159"/>
+      <c r="I34" s="157"/>
       <c r="J34" s="159"/>
       <c r="K34" s="159"/>
       <c r="L34" s="159"/>
@@ -6352,11 +6470,12 @@
       <c r="Q34" s="159"/>
       <c r="R34" s="159"/>
       <c r="S34" s="159"/>
-      <c r="T34" s="143" t="s">
+      <c r="T34" s="159"/>
+      <c r="U34" s="143" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="17" thickBot="1">
+    <row r="35" spans="1:21" ht="17" thickBot="1">
       <c r="A35" s="103"/>
       <c r="B35" s="104"/>
       <c r="C35" s="98" t="str">
@@ -6373,11 +6492,11 @@
       </c>
       <c r="F35" s="163"/>
       <c r="G35" s="155">
-        <f>I35</f>
+        <f>J35</f>
         <v>0</v>
       </c>
       <c r="H35" s="157"/>
-      <c r="I35" s="159"/>
+      <c r="I35" s="157"/>
       <c r="J35" s="159"/>
       <c r="K35" s="159"/>
       <c r="L35" s="159"/>
@@ -6388,11 +6507,12 @@
       <c r="Q35" s="159"/>
       <c r="R35" s="159"/>
       <c r="S35" s="159"/>
-      <c r="T35" s="143" t="s">
+      <c r="T35" s="159"/>
+      <c r="U35" s="143" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="17" thickBot="1">
+    <row r="36" spans="1:21" ht="17" thickBot="1">
       <c r="A36" s="103"/>
       <c r="B36" s="104"/>
       <c r="C36" s="98" t="str">
@@ -6409,11 +6529,11 @@
       </c>
       <c r="F36" s="163"/>
       <c r="G36" s="155">
-        <f>I36</f>
+        <f>J36</f>
         <v>0</v>
       </c>
       <c r="H36" s="157"/>
-      <c r="I36" s="159"/>
+      <c r="I36" s="157"/>
       <c r="J36" s="159"/>
       <c r="K36" s="159"/>
       <c r="L36" s="159"/>
@@ -6424,11 +6544,12 @@
       <c r="Q36" s="159"/>
       <c r="R36" s="159"/>
       <c r="S36" s="159"/>
-      <c r="T36" s="143" t="s">
+      <c r="T36" s="159"/>
+      <c r="U36" s="143" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="17" thickBot="1">
+    <row r="37" spans="1:21" ht="17" thickBot="1">
       <c r="A37" s="103"/>
       <c r="B37" s="104"/>
       <c r="C37" s="98" t="str">
@@ -6440,7 +6561,7 @@
         <v>euro/MWh</v>
       </c>
       <c r="E37" s="155">
-        <f>R37</f>
+        <f>S37</f>
         <v>0</v>
       </c>
       <c r="F37" s="163"/>
@@ -6453,19 +6574,20 @@
       <c r="M37" s="159"/>
       <c r="N37" s="159"/>
       <c r="O37" s="159"/>
-      <c r="P37" s="215">
-        <f>Notes!E311</f>
+      <c r="P37" s="159"/>
+      <c r="Q37" s="215">
+        <f>Notes!E319</f>
         <v>164988.7302779865</v>
       </c>
-      <c r="Q37" s="231">
-        <f>Notes!E319</f>
+      <c r="R37" s="230">
+        <f>Notes!E327</f>
         <v>154736.84210526317</v>
       </c>
-      <c r="R37" s="232"/>
-      <c r="S37" s="159"/>
-      <c r="T37" s="143"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="S37" s="231"/>
+      <c r="T37" s="159"/>
+      <c r="U37" s="143"/>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="103"/>
       <c r="B38" s="104"/>
       <c r="C38" s="26"/>
@@ -6485,9 +6607,10 @@
       <c r="Q38" s="144"/>
       <c r="R38" s="144"/>
       <c r="S38" s="144"/>
-      <c r="T38" s="143"/>
-    </row>
-    <row r="39" spans="1:20" ht="17" thickBot="1">
+      <c r="T38" s="144"/>
+      <c r="U38" s="143"/>
+    </row>
+    <row r="39" spans="1:21" ht="17" thickBot="1">
       <c r="A39" s="103"/>
       <c r="B39" s="104"/>
       <c r="C39" s="11" t="s">
@@ -6509,9 +6632,10 @@
       <c r="Q39" s="144"/>
       <c r="R39" s="144"/>
       <c r="S39" s="144"/>
-      <c r="T39" s="143"/>
-    </row>
-    <row r="40" spans="1:20" ht="17" thickBot="1">
+      <c r="T39" s="144"/>
+      <c r="U39" s="143"/>
+    </row>
+    <row r="40" spans="1:21" ht="17" thickBot="1">
       <c r="A40" s="103"/>
       <c r="B40" s="104"/>
       <c r="C40" s="98" t="str">
@@ -6528,11 +6652,11 @@
       </c>
       <c r="F40" s="163"/>
       <c r="G40" s="155">
-        <f>I40</f>
+        <f>J40</f>
         <v>0</v>
       </c>
       <c r="H40" s="157"/>
-      <c r="I40" s="159"/>
+      <c r="I40" s="157"/>
       <c r="J40" s="159"/>
       <c r="K40" s="159"/>
       <c r="L40" s="159"/>
@@ -6543,11 +6667,12 @@
       <c r="Q40" s="159"/>
       <c r="R40" s="159"/>
       <c r="S40" s="159"/>
-      <c r="T40" s="143" t="s">
+      <c r="T40" s="159"/>
+      <c r="U40" s="143" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="17" thickBot="1">
+    <row r="41" spans="1:21" ht="17" thickBot="1">
       <c r="A41" s="103"/>
       <c r="B41" s="104"/>
       <c r="C41" s="98" t="str">
@@ -6564,11 +6689,11 @@
       </c>
       <c r="F41" s="163"/>
       <c r="G41" s="155">
-        <f>I41</f>
+        <f>J41</f>
         <v>0</v>
       </c>
       <c r="H41" s="157"/>
-      <c r="I41" s="159"/>
+      <c r="I41" s="157"/>
       <c r="J41" s="159"/>
       <c r="K41" s="159"/>
       <c r="L41" s="159"/>
@@ -6579,11 +6704,12 @@
       <c r="Q41" s="159"/>
       <c r="R41" s="159"/>
       <c r="S41" s="159"/>
-      <c r="T41" s="143" t="s">
+      <c r="T41" s="159"/>
+      <c r="U41" s="143" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="17" thickBot="1">
+    <row r="42" spans="1:21" ht="17" thickBot="1">
       <c r="A42" s="103"/>
       <c r="B42" s="104"/>
       <c r="C42" s="98" t="str">
@@ -6595,7 +6721,7 @@
         <v>years</v>
       </c>
       <c r="E42" s="155">
-        <f>N42</f>
+        <f>O42</f>
         <v>15</v>
       </c>
       <c r="F42" s="163"/>
@@ -6606,20 +6732,21 @@
       <c r="K42" s="159"/>
       <c r="L42" s="159"/>
       <c r="M42" s="159"/>
-      <c r="N42" s="164">
-        <f>Notes!E259</f>
+      <c r="N42" s="159"/>
+      <c r="O42" s="164">
+        <f>Notes!E267</f>
         <v>15</v>
       </c>
-      <c r="O42" s="159"/>
       <c r="P42" s="159"/>
       <c r="Q42" s="159"/>
       <c r="R42" s="159"/>
       <c r="S42" s="159"/>
-      <c r="T42" s="171" t="s">
+      <c r="T42" s="159"/>
+      <c r="U42" s="171" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="17" thickBot="1">
+    <row r="43" spans="1:21" ht="17" thickBot="1">
       <c r="A43" s="103"/>
       <c r="B43" s="104"/>
       <c r="C43" s="98" t="str">
@@ -6636,11 +6763,11 @@
       </c>
       <c r="F43" s="163"/>
       <c r="G43" s="155">
-        <f>I43</f>
+        <f>J43</f>
         <v>0</v>
       </c>
       <c r="H43" s="157"/>
-      <c r="I43" s="159"/>
+      <c r="I43" s="157"/>
       <c r="J43" s="159"/>
       <c r="K43" s="159"/>
       <c r="L43" s="159"/>
@@ -6651,11 +6778,12 @@
       <c r="Q43" s="159"/>
       <c r="R43" s="159"/>
       <c r="S43" s="159"/>
-      <c r="T43" s="143" t="s">
+      <c r="T43" s="159"/>
+      <c r="U43" s="143" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="17" thickBot="1">
+    <row r="44" spans="1:21" ht="17" thickBot="1">
       <c r="A44" s="103"/>
       <c r="B44" s="104"/>
       <c r="C44" s="98" t="str">
@@ -6672,11 +6800,11 @@
       </c>
       <c r="F44" s="163"/>
       <c r="G44" s="168">
-        <f>I44</f>
+        <f>J44</f>
         <v>0</v>
       </c>
       <c r="H44" s="172"/>
-      <c r="I44" s="159"/>
+      <c r="I44" s="172"/>
       <c r="J44" s="159"/>
       <c r="K44" s="159"/>
       <c r="L44" s="159"/>
@@ -6687,11 +6815,12 @@
       <c r="Q44" s="159"/>
       <c r="R44" s="159"/>
       <c r="S44" s="159"/>
-      <c r="T44" s="143" t="s">
+      <c r="T44" s="159"/>
+      <c r="U44" s="143" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="17" thickBot="1">
+    <row r="45" spans="1:21" ht="17" thickBot="1">
       <c r="A45" s="103"/>
       <c r="B45" s="104"/>
       <c r="C45" s="98" t="str">
@@ -6708,11 +6837,11 @@
       </c>
       <c r="F45" s="163"/>
       <c r="G45" s="168">
-        <f>I45</f>
+        <f>J45</f>
         <v>0</v>
       </c>
       <c r="H45" s="172"/>
-      <c r="I45" s="159"/>
+      <c r="I45" s="172"/>
       <c r="J45" s="159"/>
       <c r="K45" s="159"/>
       <c r="L45" s="159"/>
@@ -6723,11 +6852,12 @@
       <c r="Q45" s="159"/>
       <c r="R45" s="159"/>
       <c r="S45" s="159"/>
-      <c r="T45" s="143" t="s">
+      <c r="T45" s="159"/>
+      <c r="U45" s="143" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="17" thickBot="1">
+    <row r="46" spans="1:21" ht="17" thickBot="1">
       <c r="A46" s="103"/>
       <c r="B46" s="104"/>
       <c r="C46" s="98" t="str">
@@ -6748,7 +6878,7 @@
         <v>11.5</v>
       </c>
       <c r="H46" s="174"/>
-      <c r="I46" s="159"/>
+      <c r="I46" s="174"/>
       <c r="J46" s="159"/>
       <c r="K46" s="159"/>
       <c r="L46" s="159"/>
@@ -6759,11 +6889,12 @@
       <c r="Q46" s="159"/>
       <c r="R46" s="159"/>
       <c r="S46" s="159"/>
-      <c r="T46" s="143" t="s">
+      <c r="T46" s="159"/>
+      <c r="U46" s="143" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="17" thickBot="1">
+    <row r="47" spans="1:21" ht="17" thickBot="1">
       <c r="A47" s="103"/>
       <c r="B47" s="104"/>
       <c r="C47" s="98" t="str">
@@ -6784,7 +6915,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="172"/>
-      <c r="I47" s="159"/>
+      <c r="I47" s="172"/>
       <c r="J47" s="159"/>
       <c r="K47" s="159"/>
       <c r="L47" s="159"/>
@@ -6795,11 +6926,12 @@
       <c r="Q47" s="159"/>
       <c r="R47" s="159"/>
       <c r="S47" s="159"/>
-      <c r="T47" s="143" t="s">
+      <c r="T47" s="159"/>
+      <c r="U47" s="143" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="17" thickBot="1">
+    <row r="48" spans="1:21" ht="17" thickBot="1">
       <c r="A48" s="103"/>
       <c r="B48" s="104"/>
       <c r="C48" s="98" t="str">
@@ -6820,7 +6952,7 @@
         <v>11.5</v>
       </c>
       <c r="H48" s="172"/>
-      <c r="I48" s="159"/>
+      <c r="I48" s="172"/>
       <c r="J48" s="159"/>
       <c r="K48" s="159"/>
       <c r="L48" s="159"/>
@@ -6831,11 +6963,12 @@
       <c r="Q48" s="159"/>
       <c r="R48" s="159"/>
       <c r="S48" s="159"/>
-      <c r="T48" s="143" t="s">
+      <c r="T48" s="159"/>
+      <c r="U48" s="143" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:21">
       <c r="B49" s="59"/>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
@@ -6854,9 +6987,10 @@
       <c r="Q49" s="144"/>
       <c r="R49" s="144"/>
       <c r="S49" s="144"/>
-      <c r="T49" s="145"/>
-    </row>
-    <row r="50" spans="2:20">
+      <c r="T49" s="144"/>
+      <c r="U49" s="145"/>
+    </row>
+    <row r="50" spans="2:21">
       <c r="B50" s="59"/>
       <c r="C50" s="63"/>
       <c r="D50" s="63"/>
@@ -6875,9 +7009,10 @@
       <c r="Q50" s="144"/>
       <c r="R50" s="144"/>
       <c r="S50" s="144"/>
-      <c r="T50" s="145"/>
-    </row>
-    <row r="51" spans="2:20">
+      <c r="T50" s="144"/>
+      <c r="U50" s="145"/>
+    </row>
+    <row r="51" spans="2:21">
       <c r="B51" s="59"/>
       <c r="C51" s="63"/>
       <c r="D51" s="63"/>
@@ -6896,9 +7031,10 @@
       <c r="Q51" s="144"/>
       <c r="R51" s="144"/>
       <c r="S51" s="144"/>
-      <c r="T51" s="145"/>
-    </row>
-    <row r="52" spans="2:20" ht="17" thickBot="1">
+      <c r="T51" s="144"/>
+      <c r="U51" s="145"/>
+    </row>
+    <row r="52" spans="2:21" ht="17" thickBot="1">
       <c r="B52" s="146"/>
       <c r="C52" s="147"/>
       <c r="D52" s="147"/>
@@ -6917,7 +7053,8 @@
       <c r="Q52" s="148"/>
       <c r="R52" s="148"/>
       <c r="S52" s="148"/>
-      <c r="T52" s="149"/>
+      <c r="T52" s="148"/>
+      <c r="U52" s="149"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6932,8 +7069,8 @@
   </sheetPr>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
@@ -7333,17 +7470,17 @@
       <c r="B23" s="177"/>
       <c r="C23" s="203"/>
       <c r="D23" s="199"/>
-      <c r="E23" s="229" t="s">
+      <c r="E23" s="228" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="229" t="s">
+      <c r="F23" s="228" t="s">
         <v>103</v>
       </c>
       <c r="G23" s="199"/>
       <c r="H23" s="199"/>
       <c r="I23" s="201"/>
       <c r="J23" s="200"/>
-      <c r="K23" s="230" t="s">
+      <c r="K23" s="229" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7648,17 +7785,29 @@
     </row>
     <row r="43" spans="1:11" s="176" customFormat="1">
       <c r="B43" s="177"/>
-      <c r="C43" s="222" t="s">
+      <c r="C43" s="287" t="s">
         <v>223</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="199"/>
-      <c r="F43" s="199"/>
-      <c r="G43" s="199"/>
-      <c r="H43" s="199"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="200"/>
-      <c r="K43" s="202"/>
+      <c r="D43" s="288"/>
+      <c r="E43" s="288" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="288" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="288">
+        <v>2021</v>
+      </c>
+      <c r="H43" s="288">
+        <v>2021</v>
+      </c>
+      <c r="I43" s="289">
+        <v>44741</v>
+      </c>
+      <c r="J43" s="287"/>
+      <c r="K43" s="290" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="44" spans="1:11" s="176" customFormat="1">
       <c r="B44" s="177"/>
@@ -8064,6 +8213,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J33" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K43" r:id="rId2" xr:uid="{4FFEB715-F442-B340-BA6C-C485CFE6D428}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8075,10 +8225,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A2:J337"/>
+  <dimension ref="A2:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E266" sqref="E266"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -8217,29 +8367,64 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="94"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
+      <c r="C15" s="291" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="291" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="291"/>
+      <c r="F15" s="291"/>
+      <c r="G15" s="291"/>
       <c r="I15" s="92"/>
       <c r="J15" s="95"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="94"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="291"/>
+      <c r="D16" s="291"/>
+      <c r="E16" s="291">
+        <v>0.92</v>
+      </c>
+      <c r="F16" s="291" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="291" t="s">
+        <v>260</v>
+      </c>
       <c r="I16" s="92"/>
       <c r="J16" s="95"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="94"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="C17" s="291"/>
+      <c r="D17" s="291"/>
+      <c r="E17" s="291">
+        <v>1</v>
+      </c>
+      <c r="F17" s="291" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" s="291" t="s">
+        <v>261</v>
+      </c>
       <c r="I17" s="92"/>
       <c r="J17" s="95"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="94"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
+      <c r="C18" s="291"/>
+      <c r="D18" s="291"/>
+      <c r="E18" s="291">
+        <f>E17/E16</f>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="F18" s="291" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="291" t="s">
+        <v>221</v>
+      </c>
       <c r="I18" s="92"/>
       <c r="J18" s="95"/>
     </row>
@@ -8280,13 +8465,8 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="94"/>
-      <c r="C24" s="115" t="s">
-        <v>144</v>
-      </c>
+      <c r="C24" s="92"/>
       <c r="D24" s="92"/>
-      <c r="G24" s="109" t="s">
-        <v>110</v>
-      </c>
       <c r="I24" s="92"/>
       <c r="J24" s="95"/>
     </row>
@@ -8294,9 +8474,6 @@
       <c r="B25" s="94"/>
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>
-      <c r="G25" s="109" t="s">
-        <v>137</v>
-      </c>
       <c r="I25" s="92"/>
       <c r="J25" s="95"/>
     </row>
@@ -8304,9 +8481,6 @@
       <c r="B26" s="94"/>
       <c r="C26" s="92"/>
       <c r="D26" s="92"/>
-      <c r="G26" s="109" t="s">
-        <v>112</v>
-      </c>
       <c r="I26" s="92"/>
       <c r="J26" s="95"/>
     </row>
@@ -8314,10 +8488,6 @@
       <c r="B27" s="94"/>
       <c r="C27" s="92"/>
       <c r="D27" s="92"/>
-      <c r="G27" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="92"/>
       <c r="I27" s="92"/>
       <c r="J27" s="95"/>
     </row>
@@ -8325,8 +8495,6 @@
       <c r="B28" s="94"/>
       <c r="C28" s="92"/>
       <c r="D28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
       <c r="I28" s="92"/>
       <c r="J28" s="95"/>
     </row>
@@ -8334,10 +8502,6 @@
       <c r="B29" s="94"/>
       <c r="C29" s="92"/>
       <c r="D29" s="92"/>
-      <c r="G29" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="92"/>
       <c r="I29" s="92"/>
       <c r="J29" s="95"/>
     </row>
@@ -8345,8 +8509,6 @@
       <c r="B30" s="94"/>
       <c r="C30" s="92"/>
       <c r="D30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="97"/>
       <c r="I30" s="92"/>
       <c r="J30" s="95"/>
     </row>
@@ -8354,18 +8516,18 @@
       <c r="B31" s="94"/>
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
-      <c r="G31" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" s="92"/>
       <c r="I31" s="92"/>
       <c r="J31" s="95"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="94"/>
-      <c r="C32" s="92"/>
+      <c r="C32" s="115" t="s">
+        <v>144</v>
+      </c>
       <c r="D32" s="92"/>
-      <c r="H32" s="92"/>
+      <c r="G32" s="109" t="s">
+        <v>110</v>
+      </c>
       <c r="I32" s="92"/>
       <c r="J32" s="95"/>
     </row>
@@ -8373,7 +8535,9 @@
       <c r="B33" s="94"/>
       <c r="C33" s="92"/>
       <c r="D33" s="92"/>
-      <c r="H33" s="92"/>
+      <c r="G33" s="109" t="s">
+        <v>137</v>
+      </c>
       <c r="I33" s="92"/>
       <c r="J33" s="95"/>
     </row>
@@ -8381,38 +8545,38 @@
       <c r="B34" s="94"/>
       <c r="C34" s="92"/>
       <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="92"/>
+      <c r="G34" s="109" t="s">
+        <v>112</v>
+      </c>
       <c r="I34" s="92"/>
       <c r="J34" s="95"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="94"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
+      <c r="G35" s="109" t="s">
+        <v>111</v>
+      </c>
       <c r="H35" s="92"/>
       <c r="I35" s="92"/>
       <c r="J35" s="95"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="94"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="92"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="92"/>
       <c r="I36" s="92"/>
       <c r="J36" s="95"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="94"/>
-      <c r="D37"/>
-      <c r="E37" s="92">
-        <v>0.2</v>
-      </c>
-      <c r="G37" s="116" t="s">
-        <v>152</v>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="G37" s="109" t="s">
+        <v>113</v>
       </c>
       <c r="H37" s="92"/>
       <c r="I37" s="92"/>
@@ -8420,141 +8584,132 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="94"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="92"/>
-      <c r="H38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="97"/>
       <c r="I38" s="92"/>
       <c r="J38" s="95"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="94"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="92"/>
-      <c r="E39" s="92">
-        <v>1.07</v>
-      </c>
-      <c r="F39" s="92"/>
-      <c r="G39" s="121" t="s">
-        <v>155</v>
-      </c>
+      <c r="G39" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="92"/>
       <c r="I39" s="92"/>
       <c r="J39" s="95"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="94"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="121" t="s">
-        <v>158</v>
-      </c>
       <c r="H40" s="92"/>
       <c r="I40" s="92"/>
       <c r="J40" s="95"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="94"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
       <c r="H41" s="92"/>
       <c r="I41" s="92"/>
       <c r="J41" s="95"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="94"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="92"/>
       <c r="E42" s="92"/>
       <c r="F42" s="92"/>
-      <c r="G42" s="109" t="s">
-        <v>146</v>
-      </c>
+      <c r="G42" s="97"/>
       <c r="H42" s="92"/>
       <c r="I42" s="92"/>
       <c r="J42" s="95"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="94"/>
-      <c r="C43" s="92"/>
       <c r="D43" s="92"/>
       <c r="E43" s="92"/>
       <c r="F43" s="92"/>
-      <c r="G43" s="109" t="s">
-        <v>147</v>
-      </c>
+      <c r="G43" s="92"/>
       <c r="H43" s="92"/>
       <c r="I43" s="92"/>
       <c r="J43" s="95"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="94"/>
-      <c r="C44" s="92"/>
       <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="92"/>
       <c r="J44" s="95"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="94"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="G45" s="117" t="s">
-        <v>153</v>
-      </c>
+      <c r="D45"/>
+      <c r="E45" s="92">
+        <v>0.2</v>
+      </c>
+      <c r="G45" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" s="92"/>
       <c r="I45" s="92"/>
       <c r="J45" s="95"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="94"/>
-      <c r="C46" s="92"/>
       <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="117" t="s">
-        <v>154</v>
-      </c>
+      <c r="H46" s="92"/>
       <c r="I46" s="92"/>
       <c r="J46" s="95"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="94"/>
-      <c r="C47" s="92"/>
       <c r="D47" s="92"/>
+      <c r="E47" s="92">
+        <v>1.07</v>
+      </c>
+      <c r="F47" s="92"/>
+      <c r="G47" s="121" t="s">
+        <v>155</v>
+      </c>
       <c r="I47" s="92"/>
       <c r="J47" s="95"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="94"/>
-      <c r="C48" s="92"/>
       <c r="D48" s="92"/>
       <c r="E48" s="92"/>
       <c r="F48" s="92"/>
+      <c r="G48" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="92"/>
       <c r="I48" s="92"/>
       <c r="J48" s="95"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="94"/>
-      <c r="C49" s="92"/>
       <c r="D49" s="92"/>
-      <c r="E49" s="241">
-        <f>E37/E39</f>
-        <v>0.18691588785046728</v>
-      </c>
-      <c r="F49" s="218"/>
-      <c r="G49" s="241" t="s">
-        <v>94</v>
-      </c>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
       <c r="I49" s="92"/>
       <c r="J49" s="95"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="94"/>
-      <c r="C50" s="92"/>
       <c r="D50" s="92"/>
       <c r="E50" s="92"/>
       <c r="F50" s="92"/>
-      <c r="G50" s="242"/>
+      <c r="G50" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="92"/>
       <c r="I50" s="92"/>
       <c r="J50" s="95"/>
     </row>
@@ -8564,6 +8719,10 @@
       <c r="D51" s="92"/>
       <c r="E51" s="92"/>
       <c r="F51" s="92"/>
+      <c r="G51" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="92"/>
       <c r="I51" s="92"/>
       <c r="J51" s="95"/>
     </row>
@@ -8573,8 +8732,7 @@
       <c r="D52" s="92"/>
       <c r="E52" s="92"/>
       <c r="F52" s="92"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="92"/>
+      <c r="G52" s="92"/>
       <c r="I52" s="92"/>
       <c r="J52" s="95"/>
     </row>
@@ -8582,14 +8740,9 @@
       <c r="B53" s="94"/>
       <c r="C53" s="92"/>
       <c r="D53" s="92"/>
-      <c r="E53" s="92">
-        <v>35.17</v>
-      </c>
-      <c r="F53" s="241" t="s">
-        <v>228</v>
-      </c>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
+      <c r="G53" s="117" t="s">
+        <v>153</v>
+      </c>
       <c r="I53" s="92"/>
       <c r="J53" s="95"/>
     </row>
@@ -8597,13 +8750,11 @@
       <c r="B54" s="94"/>
       <c r="C54" s="92"/>
       <c r="D54" s="92"/>
-      <c r="E54" s="89">
-        <v>31.65</v>
-      </c>
-      <c r="F54" s="241" t="s">
-        <v>228</v>
-      </c>
-      <c r="H54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="117" t="s">
+        <v>154</v>
+      </c>
       <c r="I54" s="92"/>
       <c r="J54" s="95"/>
     </row>
@@ -8611,11 +8762,6 @@
       <c r="B55" s="94"/>
       <c r="C55" s="92"/>
       <c r="D55" s="92"/>
-      <c r="E55" s="89">
-        <f>E54*E39</f>
-        <v>33.865499999999997</v>
-      </c>
-      <c r="H55" s="92"/>
       <c r="I55" s="92"/>
       <c r="J55" s="95"/>
     </row>
@@ -8623,11 +8769,8 @@
       <c r="B56" s="94"/>
       <c r="C56" s="92"/>
       <c r="D56" s="92"/>
-      <c r="E56" s="89">
-        <f>E55/E53</f>
-        <v>0.96290872903042357</v>
-      </c>
-      <c r="H56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
       <c r="I56" s="92"/>
       <c r="J56" s="95"/>
     </row>
@@ -8635,10 +8778,14 @@
       <c r="B57" s="94"/>
       <c r="C57" s="92"/>
       <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
+      <c r="E57" s="240">
+        <f>E45/E47</f>
+        <v>0.18691588785046728</v>
+      </c>
+      <c r="F57" s="218"/>
+      <c r="G57" s="240" t="s">
+        <v>94</v>
+      </c>
       <c r="I57" s="92"/>
       <c r="J57" s="95"/>
     </row>
@@ -8646,13 +8793,9 @@
       <c r="B58" s="94"/>
       <c r="C58" s="92"/>
       <c r="D58" s="92"/>
-      <c r="E58" s="89">
-        <v>141</v>
-      </c>
-      <c r="F58" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="H58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="241"/>
       <c r="I58" s="92"/>
       <c r="J58" s="95"/>
     </row>
@@ -8660,13 +8803,8 @@
       <c r="B59" s="94"/>
       <c r="C59" s="92"/>
       <c r="D59" s="92"/>
-      <c r="E59" s="89">
-        <v>120</v>
-      </c>
-      <c r="F59" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="H59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
       <c r="I59" s="92"/>
       <c r="J59" s="95"/>
     </row>
@@ -8674,11 +8812,9 @@
       <c r="B60" s="94"/>
       <c r="C60" s="92"/>
       <c r="D60" s="92"/>
-      <c r="E60" s="89">
-        <f>E58*E56</f>
-        <v>135.77013079328972</v>
-      </c>
-      <c r="G60" s="114"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="97"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
       <c r="J60" s="95"/>
@@ -8687,13 +8823,13 @@
       <c r="B61" s="94"/>
       <c r="C61" s="92"/>
       <c r="D61" s="92"/>
-      <c r="E61" s="89">
-        <f>E60/E59</f>
-        <v>1.1314177566107477</v>
-      </c>
-      <c r="G61" s="242" t="s">
-        <v>221</v>
-      </c>
+      <c r="E61" s="92">
+        <v>35.17</v>
+      </c>
+      <c r="F61" s="240" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="92"/>
       <c r="H61" s="92"/>
       <c r="I61" s="92"/>
       <c r="J61" s="95"/>
@@ -8702,6 +8838,12 @@
       <c r="B62" s="94"/>
       <c r="C62" s="92"/>
       <c r="D62" s="92"/>
+      <c r="E62" s="89">
+        <v>31.65</v>
+      </c>
+      <c r="F62" s="240" t="s">
+        <v>228</v>
+      </c>
       <c r="H62" s="92"/>
       <c r="I62" s="92"/>
       <c r="J62" s="95"/>
@@ -8710,9 +8852,10 @@
       <c r="B63" s="94"/>
       <c r="C63" s="92"/>
       <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
+      <c r="E63" s="89">
+        <f>E62*E47</f>
+        <v>33.865499999999997</v>
+      </c>
       <c r="H63" s="92"/>
       <c r="I63" s="92"/>
       <c r="J63" s="95"/>
@@ -8721,13 +8864,9 @@
       <c r="B64" s="94"/>
       <c r="C64" s="92"/>
       <c r="D64" s="92"/>
-      <c r="E64" s="92">
-        <f>E49</f>
-        <v>0.18691588785046728</v>
-      </c>
-      <c r="F64" s="92"/>
-      <c r="G64" s="241" t="s">
-        <v>220</v>
+      <c r="E64" s="89">
+        <f>E63/E61</f>
+        <v>0.96290872903042357</v>
       </c>
       <c r="H64" s="92"/>
       <c r="I64" s="92"/>
@@ -8748,13 +8887,27 @@
       <c r="B66" s="94"/>
       <c r="C66" s="92"/>
       <c r="D66" s="92"/>
+      <c r="E66" s="89">
+        <v>141</v>
+      </c>
+      <c r="F66" s="241" t="s">
+        <v>229</v>
+      </c>
+      <c r="H66" s="92"/>
       <c r="I66" s="92"/>
       <c r="J66" s="95"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="94"/>
-      <c r="C67" s="96"/>
+      <c r="C67" s="92"/>
       <c r="D67" s="92"/>
+      <c r="E67" s="89">
+        <v>120</v>
+      </c>
+      <c r="F67" s="241" t="s">
+        <v>229</v>
+      </c>
+      <c r="H67" s="92"/>
       <c r="I67" s="92"/>
       <c r="J67" s="95"/>
     </row>
@@ -8762,6 +8915,12 @@
       <c r="B68" s="94"/>
       <c r="C68" s="92"/>
       <c r="D68" s="92"/>
+      <c r="E68" s="89">
+        <f>E66*E64</f>
+        <v>135.77013079328972</v>
+      </c>
+      <c r="G68" s="114"/>
+      <c r="H68" s="92"/>
       <c r="I68" s="92"/>
       <c r="J68" s="95"/>
     </row>
@@ -8769,6 +8928,14 @@
       <c r="B69" s="94"/>
       <c r="C69" s="92"/>
       <c r="D69" s="92"/>
+      <c r="E69" s="89">
+        <f>E68/E67</f>
+        <v>1.1314177566107477</v>
+      </c>
+      <c r="G69" s="241" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" s="92"/>
       <c r="I69" s="92"/>
       <c r="J69" s="95"/>
     </row>
@@ -8776,6 +8943,7 @@
       <c r="B70" s="94"/>
       <c r="C70" s="92"/>
       <c r="D70" s="92"/>
+      <c r="H70" s="92"/>
       <c r="I70" s="92"/>
       <c r="J70" s="95"/>
     </row>
@@ -8794,9 +8962,14 @@
       <c r="B72" s="94"/>
       <c r="C72" s="92"/>
       <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
+      <c r="E72" s="92">
+        <f>E57</f>
+        <v>0.18691588785046728</v>
+      </c>
       <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
+      <c r="G72" s="240" t="s">
+        <v>220</v>
+      </c>
       <c r="H72" s="92"/>
       <c r="I72" s="92"/>
       <c r="J72" s="95"/>
@@ -8816,21 +8989,13 @@
       <c r="B74" s="94"/>
       <c r="C74" s="92"/>
       <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
       <c r="I74" s="92"/>
       <c r="J74" s="95"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="94"/>
-      <c r="C75" s="92"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="92"/>
       <c r="I75" s="92"/>
       <c r="J75" s="95"/>
     </row>
@@ -8838,10 +9003,6 @@
       <c r="B76" s="94"/>
       <c r="C76" s="92"/>
       <c r="D76" s="92"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="92"/>
       <c r="I76" s="92"/>
       <c r="J76" s="95"/>
     </row>
@@ -8849,10 +9010,6 @@
       <c r="B77" s="94"/>
       <c r="C77" s="92"/>
       <c r="D77" s="92"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="92"/>
       <c r="I77" s="92"/>
       <c r="J77" s="95"/>
     </row>
@@ -8860,10 +9017,6 @@
       <c r="B78" s="94"/>
       <c r="C78" s="92"/>
       <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
       <c r="I78" s="92"/>
       <c r="J78" s="95"/>
     </row>
@@ -8913,14 +9066,12 @@
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="94"/>
-      <c r="C83" s="12" t="s">
-        <v>141</v>
-      </c>
+      <c r="C83" s="92"/>
       <c r="D83" s="92"/>
       <c r="E83" s="92"/>
       <c r="F83" s="92"/>
       <c r="G83" s="92"/>
-      <c r="H83" s="97"/>
+      <c r="H83" s="92"/>
       <c r="I83" s="92"/>
       <c r="J83" s="95"/>
     </row>
@@ -8961,15 +9112,9 @@
       <c r="B87" s="94"/>
       <c r="C87" s="92"/>
       <c r="D87" s="92"/>
-      <c r="E87" s="109">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F87" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="G87" s="107" t="s">
-        <v>36</v>
-      </c>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="92"/>
       <c r="H87" s="92"/>
       <c r="I87" s="92"/>
       <c r="J87" s="95"/>
@@ -8978,16 +9123,9 @@
       <c r="B88" s="94"/>
       <c r="C88" s="92"/>
       <c r="D88" s="92"/>
-      <c r="E88" s="109">
-        <f>E87/1000</f>
-        <v>4.9000000000000007E-3</v>
-      </c>
-      <c r="F88" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="G88" s="109" t="s">
-        <v>109</v>
-      </c>
+      <c r="E88" s="92"/>
+      <c r="F88" s="92"/>
+      <c r="G88" s="92"/>
       <c r="H88" s="92"/>
       <c r="I88" s="92"/>
       <c r="J88" s="95"/>
@@ -9010,21 +9148,20 @@
       <c r="E90" s="92"/>
       <c r="F90" s="92"/>
       <c r="G90" s="92"/>
-      <c r="H90" s="97"/>
+      <c r="H90" s="92"/>
       <c r="I90" s="92"/>
       <c r="J90" s="95"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="94"/>
-      <c r="C91" s="92"/>
+      <c r="C91" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="D91" s="92"/>
-      <c r="E91" s="92">
-        <v>4.5</v>
-      </c>
-      <c r="G91" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="H91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="97"/>
       <c r="I91" s="92"/>
       <c r="J91" s="95"/>
     </row>
@@ -9032,13 +9169,9 @@
       <c r="B92" s="94"/>
       <c r="C92" s="92"/>
       <c r="D92" s="92"/>
-      <c r="E92" s="92">
-        <f>(1-E49)*(1-1/E91)</f>
-        <v>0.63239875389408096</v>
-      </c>
-      <c r="G92" s="105" t="s">
-        <v>84</v>
-      </c>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
       <c r="H92" s="92"/>
       <c r="I92" s="92"/>
       <c r="J92" s="95"/>
@@ -9047,13 +9180,9 @@
       <c r="B93" s="94"/>
       <c r="C93" s="92"/>
       <c r="D93" s="92"/>
-      <c r="E93" s="92">
-        <f>(1-E49)/E91</f>
-        <v>0.18068535825545171</v>
-      </c>
-      <c r="G93" s="105" t="s">
-        <v>85</v>
-      </c>
+      <c r="E93" s="92"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="92"/>
       <c r="H93" s="92"/>
       <c r="I93" s="92"/>
       <c r="J93" s="95"/>
@@ -9061,7 +9190,7 @@
     <row r="94" spans="2:10">
       <c r="B94" s="94"/>
       <c r="C94" s="92"/>
-      <c r="D94"/>
+      <c r="D94" s="92"/>
       <c r="E94" s="92"/>
       <c r="F94" s="92"/>
       <c r="G94" s="92"/>
@@ -9073,9 +9202,15 @@
       <c r="B95" s="94"/>
       <c r="C95" s="92"/>
       <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
+      <c r="E95" s="109">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F95" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="G95" s="107" t="s">
+        <v>36</v>
+      </c>
       <c r="H95" s="92"/>
       <c r="I95" s="92"/>
       <c r="J95" s="95"/>
@@ -9084,9 +9219,16 @@
       <c r="B96" s="94"/>
       <c r="C96" s="92"/>
       <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
+      <c r="E96" s="109">
+        <f>E95/1000</f>
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="F96" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="G96" s="109" t="s">
+        <v>109</v>
+      </c>
       <c r="H96" s="92"/>
       <c r="I96" s="92"/>
       <c r="J96" s="95"/>
@@ -9095,13 +9237,9 @@
       <c r="B97" s="94"/>
       <c r="C97" s="92"/>
       <c r="D97" s="92"/>
-      <c r="E97" s="120">
-        <v>1</v>
-      </c>
+      <c r="E97" s="92"/>
       <c r="F97" s="92"/>
-      <c r="G97" s="119" t="s">
-        <v>156</v>
-      </c>
+      <c r="G97" s="92"/>
       <c r="H97" s="92"/>
       <c r="I97" s="92"/>
       <c r="J97" s="95"/>
@@ -9110,14 +9248,10 @@
       <c r="B98" s="94"/>
       <c r="C98" s="92"/>
       <c r="D98" s="92"/>
-      <c r="E98" s="120">
-        <v>1</v>
-      </c>
-      <c r="F98"/>
-      <c r="G98" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="H98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="97"/>
       <c r="I98" s="92"/>
       <c r="J98" s="95"/>
     </row>
@@ -9125,9 +9259,12 @@
       <c r="B99" s="94"/>
       <c r="C99" s="92"/>
       <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
+      <c r="E99" s="92">
+        <v>4.5</v>
+      </c>
+      <c r="G99" s="105" t="s">
+        <v>93</v>
+      </c>
       <c r="H99" s="92"/>
       <c r="I99" s="92"/>
       <c r="J99" s="95"/>
@@ -9136,10 +9273,12 @@
       <c r="B100" s="94"/>
       <c r="C100" s="92"/>
       <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="121" t="s">
-        <v>159</v>
+      <c r="E100" s="92">
+        <f>(1-E57)*(1-1/E99)</f>
+        <v>0.63239875389408096</v>
+      </c>
+      <c r="G100" s="105" t="s">
+        <v>84</v>
       </c>
       <c r="H100" s="92"/>
       <c r="I100" s="92"/>
@@ -9149,9 +9288,13 @@
       <c r="B101" s="94"/>
       <c r="C101" s="92"/>
       <c r="D101" s="92"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
+      <c r="E101" s="92">
+        <f>(1-E57)/E99</f>
+        <v>0.18068535825545171</v>
+      </c>
+      <c r="G101" s="105" t="s">
+        <v>85</v>
+      </c>
       <c r="H101" s="92"/>
       <c r="I101" s="92"/>
       <c r="J101" s="95"/>
@@ -9159,7 +9302,7 @@
     <row r="102" spans="2:10">
       <c r="B102" s="94"/>
       <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
+      <c r="D102"/>
       <c r="E102" s="92"/>
       <c r="F102" s="92"/>
       <c r="G102" s="92"/>
@@ -9193,9 +9336,13 @@
       <c r="B105" s="94"/>
       <c r="C105" s="92"/>
       <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
+      <c r="E105" s="120">
+        <v>1</v>
+      </c>
       <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
+      <c r="G105" s="119" t="s">
+        <v>156</v>
+      </c>
       <c r="H105" s="92"/>
       <c r="I105" s="92"/>
       <c r="J105" s="95"/>
@@ -9204,9 +9351,13 @@
       <c r="B106" s="94"/>
       <c r="C106" s="92"/>
       <c r="D106" s="92"/>
-      <c r="E106" s="92"/>
-      <c r="F106" s="92"/>
-      <c r="G106" s="92"/>
+      <c r="E106" s="120">
+        <v>1</v>
+      </c>
+      <c r="F106"/>
+      <c r="G106" s="119" t="s">
+        <v>157</v>
+      </c>
       <c r="H106" s="92"/>
       <c r="I106" s="92"/>
       <c r="J106" s="95"/>
@@ -9218,7 +9369,7 @@
       <c r="E107" s="92"/>
       <c r="F107" s="92"/>
       <c r="G107" s="92"/>
-      <c r="H107" s="97"/>
+      <c r="H107" s="92"/>
       <c r="I107" s="92"/>
       <c r="J107" s="95"/>
     </row>
@@ -9228,7 +9379,9 @@
       <c r="D108" s="92"/>
       <c r="E108" s="92"/>
       <c r="F108" s="92"/>
-      <c r="G108" s="92"/>
+      <c r="G108" s="121" t="s">
+        <v>159</v>
+      </c>
       <c r="H108" s="92"/>
       <c r="I108" s="92"/>
       <c r="J108" s="95"/>
@@ -9306,7 +9459,7 @@
       <c r="E115" s="92"/>
       <c r="F115" s="92"/>
       <c r="G115" s="92"/>
-      <c r="H115" s="92"/>
+      <c r="H115" s="97"/>
       <c r="I115" s="92"/>
       <c r="J115" s="95"/>
     </row>
@@ -9317,7 +9470,7 @@
       <c r="E116" s="92"/>
       <c r="F116" s="92"/>
       <c r="G116" s="92"/>
-      <c r="H116" s="97"/>
+      <c r="H116" s="92"/>
       <c r="I116" s="92"/>
       <c r="J116" s="95"/>
     </row>
@@ -9405,7 +9558,7 @@
       <c r="E124" s="92"/>
       <c r="F124" s="92"/>
       <c r="G124" s="92"/>
-      <c r="H124" s="92"/>
+      <c r="H124" s="97"/>
       <c r="I124" s="92"/>
       <c r="J124" s="95"/>
     </row>
@@ -9498,20 +9651,18 @@
       <c r="J132" s="95"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="107"/>
-      <c r="B133" s="108"/>
+      <c r="B133" s="94"/>
       <c r="C133" s="92"/>
       <c r="D133" s="92"/>
       <c r="E133" s="92"/>
       <c r="F133" s="92"/>
       <c r="G133" s="92"/>
-      <c r="H133" s="97"/>
+      <c r="H133" s="92"/>
       <c r="I133" s="92"/>
       <c r="J133" s="95"/>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="107"/>
-      <c r="B134" s="108"/>
+      <c r="B134" s="94"/>
       <c r="C134" s="92"/>
       <c r="D134" s="92"/>
       <c r="E134" s="92"/>
@@ -9522,54 +9673,112 @@
       <c r="J134" s="95"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="107"/>
-      <c r="B135" s="108"/>
+      <c r="B135" s="94"/>
       <c r="C135" s="92"/>
       <c r="D135" s="92"/>
+      <c r="E135" s="92"/>
+      <c r="F135" s="92"/>
+      <c r="G135" s="92"/>
       <c r="H135" s="92"/>
       <c r="I135" s="92"/>
       <c r="J135" s="95"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="107"/>
-      <c r="B136" s="108"/>
+      <c r="B136" s="94"/>
       <c r="C136" s="92"/>
       <c r="D136" s="92"/>
+      <c r="E136" s="92"/>
+      <c r="F136" s="92"/>
+      <c r="G136" s="92"/>
       <c r="H136" s="92"/>
       <c r="I136" s="92"/>
       <c r="J136" s="95"/>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="107"/>
-      <c r="B137" s="108"/>
+      <c r="B137" s="94"/>
+      <c r="C137" s="92"/>
+      <c r="D137" s="92"/>
+      <c r="E137" s="92"/>
+      <c r="F137" s="92"/>
+      <c r="G137" s="92"/>
+      <c r="H137" s="92"/>
+      <c r="I137" s="92"/>
+      <c r="J137" s="95"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="107"/>
-      <c r="B138" s="108"/>
+      <c r="B138" s="94"/>
+      <c r="C138" s="92"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="92"/>
+      <c r="F138" s="92"/>
+      <c r="G138" s="92"/>
+      <c r="H138" s="92"/>
+      <c r="I138" s="92"/>
+      <c r="J138" s="95"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="107"/>
-      <c r="B139" s="108"/>
+      <c r="B139" s="94"/>
+      <c r="C139" s="92"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="92"/>
+      <c r="F139" s="92"/>
+      <c r="G139" s="92"/>
+      <c r="H139" s="92"/>
+      <c r="I139" s="92"/>
+      <c r="J139" s="95"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="107"/>
-      <c r="B140" s="108"/>
+      <c r="B140" s="94"/>
+      <c r="C140" s="92"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="92"/>
+      <c r="F140" s="92"/>
+      <c r="G140" s="92"/>
+      <c r="H140" s="92"/>
+      <c r="I140" s="92"/>
+      <c r="J140" s="95"/>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="107"/>
       <c r="B141" s="108"/>
+      <c r="C141" s="92"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="92"/>
+      <c r="F141" s="92"/>
+      <c r="G141" s="92"/>
+      <c r="H141" s="97"/>
+      <c r="I141" s="92"/>
+      <c r="J141" s="95"/>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="107"/>
       <c r="B142" s="108"/>
+      <c r="C142" s="92"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="92"/>
+      <c r="F142" s="92"/>
+      <c r="G142" s="92"/>
+      <c r="H142" s="92"/>
+      <c r="I142" s="92"/>
+      <c r="J142" s="95"/>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="107"/>
       <c r="B143" s="108"/>
+      <c r="C143" s="92"/>
+      <c r="D143" s="92"/>
+      <c r="H143" s="92"/>
+      <c r="I143" s="92"/>
+      <c r="J143" s="95"/>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="107"/>
       <c r="B144" s="108"/>
+      <c r="C144" s="92"/>
+      <c r="D144" s="92"/>
+      <c r="H144" s="92"/>
+      <c r="I144" s="92"/>
+      <c r="J144" s="95"/>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="107"/>
@@ -9600,159 +9809,144 @@
       <c r="B151" s="108"/>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="103"/>
-      <c r="B152" s="104"/>
+      <c r="A152" s="107"/>
+      <c r="B152" s="108"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="103"/>
-      <c r="B153" s="104"/>
+      <c r="A153" s="107"/>
+      <c r="B153" s="108"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="103"/>
-      <c r="B154" s="104"/>
+      <c r="A154" s="107"/>
+      <c r="B154" s="108"/>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="103"/>
-      <c r="B155" s="104"/>
+      <c r="A155" s="107"/>
+      <c r="B155" s="108"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="103"/>
-      <c r="B156" s="104"/>
+      <c r="A156" s="107"/>
+      <c r="B156" s="108"/>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="103"/>
-      <c r="B157" s="104"/>
+      <c r="A157" s="107"/>
+      <c r="B157" s="108"/>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="103"/>
-      <c r="B158" s="104"/>
+      <c r="A158" s="107"/>
+      <c r="B158" s="108"/>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="103"/>
-      <c r="B159" s="104"/>
+      <c r="A159" s="107"/>
+      <c r="B159" s="108"/>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="103"/>
       <c r="B160" s="104"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:3">
       <c r="A161" s="103"/>
       <c r="B161" s="104"/>
-      <c r="C161" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="103"/>
       <c r="B162" s="104"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:3">
       <c r="A163" s="103"/>
       <c r="B163" s="104"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:3">
       <c r="A164" s="103"/>
       <c r="B164" s="104"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:3">
       <c r="A165" s="103"/>
       <c r="B165" s="104"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:3">
       <c r="A166" s="103"/>
       <c r="B166" s="104"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:3">
       <c r="A167" s="103"/>
       <c r="B167" s="104"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:3">
       <c r="A168" s="103"/>
       <c r="B168" s="104"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:3">
       <c r="A169" s="103"/>
       <c r="B169" s="104"/>
-      <c r="E169" s="89">
-        <v>2635</v>
-      </c>
-      <c r="F169" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G169" s="106" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="C169" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="103"/>
       <c r="B170" s="104"/>
-      <c r="G170" s="106" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="103"/>
       <c r="B171" s="104"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:3">
       <c r="A172" s="103"/>
       <c r="B172" s="104"/>
-      <c r="E172" s="89">
-        <v>600</v>
-      </c>
-      <c r="F172" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G172" s="106" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="103"/>
       <c r="B173" s="104"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:3">
       <c r="A174" s="103"/>
       <c r="B174" s="104"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:3">
       <c r="A175" s="103"/>
       <c r="B175" s="104"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:3">
       <c r="A176" s="103"/>
       <c r="B176" s="104"/>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="103"/>
       <c r="B177" s="104"/>
+      <c r="E177" s="89">
+        <v>2635</v>
+      </c>
+      <c r="F177" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="G177" s="106" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="103"/>
       <c r="B178" s="104"/>
-      <c r="E178" s="89">
-        <v>1500</v>
-      </c>
-      <c r="F178" s="106" t="s">
-        <v>28</v>
-      </c>
       <c r="G178" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="I178" s="107" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="103"/>
       <c r="B179" s="104"/>
-      <c r="G179" s="106" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="103"/>
       <c r="B180" s="104"/>
+      <c r="E180" s="89">
+        <v>600</v>
+      </c>
+      <c r="F180" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="G180" s="106" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="103"/>
@@ -9765,16 +9959,6 @@
     <row r="183" spans="1:9">
       <c r="A183" s="103"/>
       <c r="B183" s="104"/>
-      <c r="E183" s="89">
-        <f>E178+E169</f>
-        <v>4135</v>
-      </c>
-      <c r="F183" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G183" s="106" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="103"/>
@@ -9787,31 +9971,29 @@
     <row r="186" spans="1:9">
       <c r="A186" s="103"/>
       <c r="B186" s="104"/>
-      <c r="D186" s="133" t="str">
-        <f>Dashboard!C$22</f>
-        <v>storage.volume</v>
-      </c>
-      <c r="E186" s="125">
-        <v>0</v>
-      </c>
-      <c r="F186" s="127" t="s">
-        <v>167</v>
-      </c>
-      <c r="G186" s="125" t="s">
-        <v>203</v>
+      <c r="E186" s="89">
+        <v>1500</v>
+      </c>
+      <c r="F186" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="G186" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="I186" s="107" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="103"/>
       <c r="B187" s="104"/>
+      <c r="G187" s="106" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="103"/>
       <c r="B188" s="104"/>
-      <c r="C188" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E188" s="92"/>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="103"/>
@@ -9824,6 +10006,16 @@
     <row r="191" spans="1:9">
       <c r="A191" s="103"/>
       <c r="B191" s="104"/>
+      <c r="E191" s="89">
+        <f>E186+E177</f>
+        <v>4135</v>
+      </c>
+      <c r="F191" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="G191" s="106" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="103"/>
@@ -9836,6 +10028,19 @@
     <row r="194" spans="1:7">
       <c r="A194" s="103"/>
       <c r="B194" s="104"/>
+      <c r="D194" s="133" t="str">
+        <f>Dashboard!C$22</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="E194" s="125">
+        <v>0</v>
+      </c>
+      <c r="F194" s="127" t="s">
+        <v>167</v>
+      </c>
+      <c r="G194" s="125" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="103"/>
@@ -9844,43 +10049,22 @@
     <row r="196" spans="1:7">
       <c r="A196" s="103"/>
       <c r="B196" s="104"/>
-      <c r="E196" s="89">
-        <v>117</v>
-      </c>
-      <c r="F196" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="G196" s="107" t="s">
-        <v>123</v>
-      </c>
+      <c r="C196" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E196" s="92"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="103"/>
       <c r="B197" s="104"/>
-      <c r="G197" s="107" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="103"/>
       <c r="B198" s="104"/>
-      <c r="E198" s="89">
-        <f>E196/1.21</f>
-        <v>96.694214876033058</v>
-      </c>
-      <c r="F198" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="G198" s="107" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="103"/>
       <c r="B199" s="104"/>
-      <c r="G199" s="107" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="103"/>
@@ -9889,22 +10073,10 @@
     <row r="201" spans="1:7">
       <c r="A201" s="103"/>
       <c r="B201" s="104"/>
-      <c r="E201" s="89">
-        <v>189</v>
-      </c>
-      <c r="F201" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="G201" s="107" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="103"/>
       <c r="B202" s="104"/>
-      <c r="G202" s="107" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="103"/>
@@ -9914,31 +10086,42 @@
       <c r="A204" s="103"/>
       <c r="B204" s="104"/>
       <c r="E204" s="89">
-        <f>E201/1.21</f>
-        <v>156.19834710743802</v>
+        <v>117</v>
       </c>
       <c r="F204" s="107" t="s">
         <v>118</v>
       </c>
       <c r="G204" s="107" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="103"/>
       <c r="B205" s="104"/>
       <c r="G205" s="107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="103"/>
       <c r="B206" s="104"/>
+      <c r="E206" s="89">
+        <f>E204/1.21</f>
+        <v>96.694214876033058</v>
+      </c>
+      <c r="F206" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="G206" s="107" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="103"/>
       <c r="B207" s="104"/>
-      <c r="C207" s="107"/>
+      <c r="G207" s="107" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="103"/>
@@ -9948,21 +10131,20 @@
       <c r="A209" s="103"/>
       <c r="B209" s="104"/>
       <c r="E209" s="89">
-        <f>E204+E198</f>
-        <v>252.89256198347107</v>
+        <v>189</v>
       </c>
       <c r="F209" s="107" t="s">
         <v>118</v>
       </c>
       <c r="G209" s="107" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="103"/>
       <c r="B210" s="104"/>
       <c r="G210" s="107" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -9972,674 +10154,613 @@
     <row r="212" spans="1:10">
       <c r="A212" s="103"/>
       <c r="B212" s="104"/>
-    </row>
-    <row r="213" spans="1:10" s="125" customFormat="1">
-      <c r="B213" s="126"/>
-      <c r="C213" s="127"/>
-      <c r="D213" s="127"/>
-      <c r="E213" s="127"/>
-      <c r="F213" s="127"/>
-      <c r="G213" s="127"/>
-      <c r="H213" s="127"/>
-      <c r="I213" s="127"/>
-      <c r="J213" s="128"/>
-    </row>
-    <row r="214" spans="1:10" s="248" customFormat="1">
-      <c r="B214" s="249"/>
-      <c r="C214" s="18" t="s">
+      <c r="E212" s="89">
+        <f>E209/1.21</f>
+        <v>156.19834710743802</v>
+      </c>
+      <c r="F212" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="G212" s="107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="103"/>
+      <c r="B213" s="104"/>
+      <c r="G213" s="107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="103"/>
+      <c r="B214" s="104"/>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="103"/>
+      <c r="B215" s="104"/>
+      <c r="C215" s="107"/>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="103"/>
+      <c r="B216" s="104"/>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="103"/>
+      <c r="B217" s="104"/>
+      <c r="E217" s="89">
+        <f>E212+E206</f>
+        <v>252.89256198347107</v>
+      </c>
+      <c r="F217" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="G217" s="107" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="103"/>
+      <c r="B218" s="104"/>
+      <c r="G218" s="107" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="103"/>
+      <c r="B219" s="104"/>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="103"/>
+      <c r="B220" s="104"/>
+    </row>
+    <row r="221" spans="1:10" s="125" customFormat="1">
+      <c r="B221" s="126"/>
+      <c r="C221" s="127"/>
+      <c r="D221" s="127"/>
+      <c r="E221" s="127"/>
+      <c r="F221" s="127"/>
+      <c r="G221" s="127"/>
+      <c r="H221" s="127"/>
+      <c r="I221" s="127"/>
+      <c r="J221" s="128"/>
+    </row>
+    <row r="222" spans="1:10" s="247" customFormat="1">
+      <c r="B222" s="248"/>
+      <c r="C222" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E214" s="18" t="s">
+      <c r="E222" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F214" s="248">
-        <f>F223</f>
+      <c r="F222" s="247">
+        <f>F231</f>
         <v>2.6002380221130221</v>
       </c>
-      <c r="J214" s="250"/>
-    </row>
-    <row r="215" spans="1:10" s="248" customFormat="1">
-      <c r="B215" s="249"/>
-      <c r="C215" s="18"/>
-      <c r="E215" s="18"/>
-      <c r="J215" s="250"/>
-    </row>
-    <row r="216" spans="1:10" s="248" customFormat="1">
-      <c r="B216" s="249"/>
-      <c r="C216" s="18"/>
-      <c r="E216" s="248" t="s">
+      <c r="J222" s="249"/>
+    </row>
+    <row r="223" spans="1:10" s="247" customFormat="1">
+      <c r="B223" s="248"/>
+      <c r="C223" s="18"/>
+      <c r="E223" s="18"/>
+      <c r="J223" s="249"/>
+    </row>
+    <row r="224" spans="1:10" s="247" customFormat="1">
+      <c r="B224" s="248"/>
+      <c r="C224" s="18"/>
+      <c r="E224" s="247" t="s">
         <v>231</v>
       </c>
-      <c r="J216" s="250"/>
-    </row>
-    <row r="217" spans="1:10" s="248" customFormat="1">
-      <c r="B217" s="249"/>
-      <c r="C217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="J217" s="250"/>
-    </row>
-    <row r="218" spans="1:10" s="248" customFormat="1">
-      <c r="B218" s="249"/>
-      <c r="C218" s="18"/>
-      <c r="E218" s="248" t="s">
-        <v>232</v>
-      </c>
-      <c r="F218" s="248">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="G218" s="248" t="s">
-        <v>233</v>
-      </c>
-      <c r="J218" s="250"/>
-    </row>
-    <row r="219" spans="1:10" s="248" customFormat="1">
-      <c r="B219" s="249"/>
-      <c r="C219" s="18"/>
-      <c r="F219" s="248">
-        <f>(F218/31.65)/1.07</f>
-        <v>2.4036261091671465</v>
-      </c>
-      <c r="G219" s="248" t="s">
-        <v>234</v>
-      </c>
-      <c r="J219" s="250"/>
-    </row>
-    <row r="220" spans="1:10" s="248" customFormat="1">
-      <c r="B220" s="249"/>
-      <c r="C220" s="18"/>
-      <c r="E220" s="248" t="s">
-        <v>235</v>
-      </c>
-      <c r="F220" s="248">
-        <v>22.5</v>
-      </c>
-      <c r="G220" s="248" t="s">
-        <v>236</v>
-      </c>
-      <c r="J220" s="250"/>
-    </row>
-    <row r="221" spans="1:10" s="248" customFormat="1">
-      <c r="B221" s="249"/>
-      <c r="C221" s="18"/>
-      <c r="E221" s="18"/>
-      <c r="F221" s="248">
-        <f>F220/3.6</f>
-        <v>6.25</v>
-      </c>
-      <c r="G221" s="248" t="s">
-        <v>234</v>
-      </c>
-      <c r="H221" s="248" t="s">
-        <v>237</v>
-      </c>
-      <c r="J221" s="250"/>
-    </row>
-    <row r="222" spans="1:10" s="248" customFormat="1">
-      <c r="B222" s="249"/>
-      <c r="C222" s="18"/>
-      <c r="E222" s="18"/>
-      <c r="J222" s="250"/>
-    </row>
-    <row r="223" spans="1:10" s="248" customFormat="1">
-      <c r="B223" s="249"/>
-      <c r="C223" s="18"/>
-      <c r="E223" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="F223" s="18">
-        <f>F221/F219</f>
-        <v>2.6002380221130221</v>
-      </c>
-      <c r="J223" s="250"/>
-    </row>
-    <row r="224" spans="1:10" s="248" customFormat="1">
-      <c r="B224" s="249"/>
-      <c r="C224" s="18"/>
-      <c r="E224" s="18"/>
-      <c r="J224" s="250"/>
-    </row>
-    <row r="225" spans="1:10" s="248" customFormat="1">
-      <c r="B225" s="249"/>
+      <c r="J224" s="249"/>
+    </row>
+    <row r="225" spans="2:10" s="247" customFormat="1">
+      <c r="B225" s="248"/>
       <c r="C225" s="18"/>
       <c r="E225" s="18"/>
-      <c r="J225" s="250"/>
-    </row>
-    <row r="226" spans="1:10" s="248" customFormat="1">
-      <c r="B226" s="249"/>
+      <c r="J225" s="249"/>
+    </row>
+    <row r="226" spans="2:10" s="247" customFormat="1">
+      <c r="B226" s="248"/>
       <c r="C226" s="18"/>
-      <c r="E226" s="18"/>
-      <c r="J226" s="250"/>
-    </row>
-    <row r="227" spans="1:10" s="248" customFormat="1">
-      <c r="B227" s="249"/>
+      <c r="E226" s="247" t="s">
+        <v>232</v>
+      </c>
+      <c r="F226" s="247">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G226" s="247" t="s">
+        <v>233</v>
+      </c>
+      <c r="J226" s="249"/>
+    </row>
+    <row r="227" spans="2:10" s="247" customFormat="1">
+      <c r="B227" s="248"/>
       <c r="C227" s="18"/>
-      <c r="E227" s="18"/>
-      <c r="J227" s="250"/>
-    </row>
-    <row r="228" spans="1:10" s="248" customFormat="1">
-      <c r="B228" s="249"/>
+      <c r="F227" s="247">
+        <f>(F226/31.65)/1.07</f>
+        <v>2.4036261091671465</v>
+      </c>
+      <c r="G227" s="247" t="s">
+        <v>234</v>
+      </c>
+      <c r="J227" s="249"/>
+    </row>
+    <row r="228" spans="2:10" s="247" customFormat="1">
+      <c r="B228" s="248"/>
       <c r="C228" s="18"/>
-      <c r="E228" s="18"/>
-      <c r="J228" s="250"/>
-    </row>
-    <row r="229" spans="1:10" s="248" customFormat="1">
-      <c r="B229" s="249"/>
+      <c r="E228" s="247" t="s">
+        <v>235</v>
+      </c>
+      <c r="F228" s="247">
+        <v>22.5</v>
+      </c>
+      <c r="G228" s="247" t="s">
+        <v>236</v>
+      </c>
+      <c r="J228" s="249"/>
+    </row>
+    <row r="229" spans="2:10" s="247" customFormat="1">
+      <c r="B229" s="248"/>
       <c r="C229" s="18"/>
       <c r="E229" s="18"/>
-      <c r="J229" s="250"/>
-    </row>
-    <row r="230" spans="1:10" s="248" customFormat="1">
-      <c r="B230" s="249"/>
+      <c r="F229" s="247">
+        <f>F228/3.6</f>
+        <v>6.25</v>
+      </c>
+      <c r="G229" s="247" t="s">
+        <v>234</v>
+      </c>
+      <c r="H229" s="247" t="s">
+        <v>237</v>
+      </c>
+      <c r="J229" s="249"/>
+    </row>
+    <row r="230" spans="2:10" s="247" customFormat="1">
+      <c r="B230" s="248"/>
       <c r="C230" s="18"/>
       <c r="E230" s="18"/>
-      <c r="J230" s="250"/>
-    </row>
-    <row r="231" spans="1:10" s="248" customFormat="1">
-      <c r="B231" s="249"/>
+      <c r="J230" s="249"/>
+    </row>
+    <row r="231" spans="2:10" s="247" customFormat="1">
+      <c r="B231" s="248"/>
       <c r="C231" s="18"/>
-      <c r="E231" s="18"/>
-      <c r="J231" s="250"/>
-    </row>
-    <row r="232" spans="1:10" s="248" customFormat="1">
-      <c r="B232" s="249"/>
+      <c r="E231" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F231" s="18">
+        <f>F229/F227</f>
+        <v>2.6002380221130221</v>
+      </c>
+      <c r="J231" s="249"/>
+    </row>
+    <row r="232" spans="2:10" s="247" customFormat="1">
+      <c r="B232" s="248"/>
       <c r="C232" s="18"/>
       <c r="E232" s="18"/>
-      <c r="J232" s="250"/>
-    </row>
-    <row r="233" spans="1:10" s="248" customFormat="1">
-      <c r="B233" s="249"/>
+      <c r="J232" s="249"/>
+    </row>
+    <row r="233" spans="2:10" s="247" customFormat="1">
+      <c r="B233" s="248"/>
       <c r="C233" s="18"/>
       <c r="E233" s="18"/>
-      <c r="J233" s="250"/>
-    </row>
-    <row r="234" spans="1:10" s="248" customFormat="1">
-      <c r="B234" s="249"/>
+      <c r="J233" s="249"/>
+    </row>
+    <row r="234" spans="2:10" s="247" customFormat="1">
+      <c r="B234" s="248"/>
       <c r="C234" s="18"/>
       <c r="E234" s="18"/>
-      <c r="J234" s="250"/>
-    </row>
-    <row r="235" spans="1:10" s="248" customFormat="1">
-      <c r="B235" s="249"/>
-      <c r="J235" s="250"/>
-    </row>
-    <row r="236" spans="1:10" s="248" customFormat="1">
-      <c r="B236" s="249"/>
-      <c r="E236" s="18" t="s">
+      <c r="J234" s="249"/>
+    </row>
+    <row r="235" spans="2:10" s="247" customFormat="1">
+      <c r="B235" s="248"/>
+      <c r="C235" s="18"/>
+      <c r="E235" s="18"/>
+      <c r="J235" s="249"/>
+    </row>
+    <row r="236" spans="2:10" s="247" customFormat="1">
+      <c r="B236" s="248"/>
+      <c r="C236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="J236" s="249"/>
+    </row>
+    <row r="237" spans="2:10" s="247" customFormat="1">
+      <c r="B237" s="248"/>
+      <c r="C237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="J237" s="249"/>
+    </row>
+    <row r="238" spans="2:10" s="247" customFormat="1">
+      <c r="B238" s="248"/>
+      <c r="C238" s="18"/>
+      <c r="E238" s="18"/>
+      <c r="J238" s="249"/>
+    </row>
+    <row r="239" spans="2:10" s="247" customFormat="1">
+      <c r="B239" s="248"/>
+      <c r="C239" s="18"/>
+      <c r="E239" s="18"/>
+      <c r="J239" s="249"/>
+    </row>
+    <row r="240" spans="2:10" s="247" customFormat="1">
+      <c r="B240" s="248"/>
+      <c r="C240" s="18"/>
+      <c r="E240" s="18"/>
+      <c r="J240" s="249"/>
+    </row>
+    <row r="241" spans="1:10" s="247" customFormat="1">
+      <c r="B241" s="248"/>
+      <c r="C241" s="18"/>
+      <c r="E241" s="18"/>
+      <c r="J241" s="249"/>
+    </row>
+    <row r="242" spans="1:10" s="247" customFormat="1">
+      <c r="B242" s="248"/>
+      <c r="C242" s="18"/>
+      <c r="E242" s="18"/>
+      <c r="J242" s="249"/>
+    </row>
+    <row r="243" spans="1:10" s="247" customFormat="1">
+      <c r="B243" s="248"/>
+      <c r="J243" s="249"/>
+    </row>
+    <row r="244" spans="1:10" s="247" customFormat="1">
+      <c r="B244" s="248"/>
+      <c r="E244" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="F236" s="251">
+      <c r="F244" s="250">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H236" s="248" t="s">
+      <c r="H244" s="247" t="s">
         <v>173</v>
       </c>
-      <c r="J236" s="250"/>
-    </row>
-    <row r="237" spans="1:10" s="248" customFormat="1">
-      <c r="A237" s="103"/>
-      <c r="B237" s="104"/>
-    </row>
-    <row r="238" spans="1:10" s="248" customFormat="1">
-      <c r="B238" s="249"/>
-      <c r="J238" s="250"/>
-    </row>
-    <row r="239" spans="1:10" s="248" customFormat="1">
-      <c r="B239" s="249"/>
-      <c r="C239" s="252" t="s">
+      <c r="J244" s="249"/>
+    </row>
+    <row r="245" spans="1:10" s="247" customFormat="1">
+      <c r="A245" s="103"/>
+      <c r="B245" s="104"/>
+    </row>
+    <row r="246" spans="1:10" s="247" customFormat="1">
+      <c r="B246" s="248"/>
+      <c r="J246" s="249"/>
+    </row>
+    <row r="247" spans="1:10" s="247" customFormat="1">
+      <c r="B247" s="248"/>
+      <c r="C247" s="251" t="s">
         <v>170</v>
       </c>
-      <c r="D239" s="248" t="s">
+      <c r="D247" s="247" t="s">
         <v>174</v>
       </c>
-      <c r="E239" s="248">
+      <c r="E247" s="247">
         <v>65</v>
       </c>
-      <c r="J239" s="250"/>
-    </row>
-    <row r="240" spans="1:10" s="248" customFormat="1">
-      <c r="B240" s="249"/>
-      <c r="D240" s="248" t="s">
+      <c r="J247" s="249"/>
+    </row>
+    <row r="248" spans="1:10" s="247" customFormat="1">
+      <c r="B248" s="248"/>
+      <c r="D248" s="247" t="s">
         <v>239</v>
       </c>
-      <c r="J240" s="250"/>
-    </row>
-    <row r="241" spans="2:10" s="248" customFormat="1">
-      <c r="B241" s="249"/>
-      <c r="D241" s="248" t="s">
+      <c r="J248" s="249"/>
+    </row>
+    <row r="249" spans="1:10" s="247" customFormat="1">
+      <c r="B249" s="248"/>
+      <c r="D249" s="247" t="s">
         <v>240</v>
       </c>
-      <c r="J241" s="250"/>
-    </row>
-    <row r="242" spans="2:10" s="248" customFormat="1">
-      <c r="B242" s="249"/>
-      <c r="J242" s="250"/>
-    </row>
-    <row r="243" spans="2:10" s="248" customFormat="1">
-      <c r="B243" s="249"/>
-      <c r="D243" s="253" t="s">
+      <c r="J249" s="249"/>
+    </row>
+    <row r="250" spans="1:10" s="247" customFormat="1">
+      <c r="B250" s="248"/>
+      <c r="J250" s="249"/>
+    </row>
+    <row r="251" spans="1:10" s="247" customFormat="1">
+      <c r="B251" s="248"/>
+      <c r="D251" s="252" t="s">
         <v>241</v>
       </c>
-      <c r="E243" s="254">
+      <c r="E251" s="253">
         <v>35</v>
       </c>
-      <c r="F243" s="254">
+      <c r="F251" s="253">
         <v>45</v>
       </c>
-      <c r="G243" s="254">
+      <c r="G251" s="253">
         <v>50</v>
       </c>
-      <c r="J243" s="250"/>
-    </row>
-    <row r="244" spans="2:10" s="248" customFormat="1">
-      <c r="B244" s="249"/>
-      <c r="D244" s="253" t="s">
+      <c r="J251" s="249"/>
+    </row>
+    <row r="252" spans="1:10" s="247" customFormat="1">
+      <c r="B252" s="248"/>
+      <c r="D252" s="252" t="s">
         <v>242</v>
       </c>
-      <c r="E244" s="253">
+      <c r="E252" s="252">
         <v>3.25</v>
       </c>
-      <c r="F244" s="253">
-        <f>G244-((G$243-F$243)/(G$243-E$243))*(G244-E244)</f>
+      <c r="F252" s="252">
+        <f>G252-((G$251-F$251)/(G$251-E$251))*(G252-E252)</f>
         <v>2.3233333333333333</v>
       </c>
-      <c r="G244" s="253">
+      <c r="G252" s="252">
         <v>1.86</v>
       </c>
-      <c r="J244" s="250"/>
-    </row>
-    <row r="245" spans="2:10" s="248" customFormat="1">
-      <c r="B245" s="249"/>
-      <c r="D245" s="253" t="s">
+      <c r="J252" s="249"/>
+    </row>
+    <row r="253" spans="1:10" s="247" customFormat="1">
+      <c r="B253" s="248"/>
+      <c r="D253" s="252" t="s">
         <v>243</v>
       </c>
-      <c r="E245" s="253">
+      <c r="E253" s="252">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F245" s="253">
-        <f>G245-((G$243-F$243)/(G$243-E$243))*(G245-E245)</f>
+      <c r="F253" s="252">
+        <f>G253-((G$251-F$251)/(G$251-E$251))*(G253-E253)</f>
         <v>5.7833333333333327E-2</v>
       </c>
-      <c r="G245" s="253">
+      <c r="G253" s="252">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J245" s="250"/>
-    </row>
-    <row r="246" spans="2:10" s="248" customFormat="1">
-      <c r="B246" s="249"/>
-      <c r="D246" s="248" t="s">
+      <c r="J253" s="249"/>
+    </row>
+    <row r="254" spans="1:10" s="247" customFormat="1">
+      <c r="B254" s="248"/>
+      <c r="D254" s="247" t="s">
         <v>244</v>
       </c>
-      <c r="E246" s="248" t="s">
+      <c r="E254" s="247" t="s">
         <v>245</v>
       </c>
-      <c r="G246" s="248" t="s">
+      <c r="G254" s="247" t="s">
         <v>245</v>
       </c>
-      <c r="J246" s="250"/>
-    </row>
-    <row r="247" spans="2:10" s="248" customFormat="1">
-      <c r="B247" s="249"/>
-      <c r="J247" s="250"/>
-    </row>
-    <row r="248" spans="2:10" s="248" customFormat="1">
-      <c r="B248" s="249"/>
-      <c r="J248" s="250"/>
-    </row>
-    <row r="249" spans="2:10" s="248" customFormat="1">
-      <c r="B249" s="249"/>
-      <c r="D249" s="255" t="s">
+      <c r="J254" s="249"/>
+    </row>
+    <row r="255" spans="1:10" s="247" customFormat="1">
+      <c r="B255" s="248"/>
+      <c r="J255" s="249"/>
+    </row>
+    <row r="256" spans="1:10" s="247" customFormat="1">
+      <c r="B256" s="248"/>
+      <c r="J256" s="249"/>
+    </row>
+    <row r="257" spans="2:10" s="247" customFormat="1">
+      <c r="B257" s="248"/>
+      <c r="D257" s="254" t="s">
         <v>162</v>
       </c>
-      <c r="E249" s="257">
-        <f>F244</f>
+      <c r="E257" s="256">
+        <f>F252</f>
         <v>2.3233333333333333</v>
       </c>
-      <c r="F249" s="248" t="s">
+      <c r="F257" s="247" t="s">
         <v>93</v>
       </c>
-      <c r="J249" s="250"/>
-    </row>
-    <row r="250" spans="2:10" s="248" customFormat="1">
-      <c r="B250" s="249"/>
-      <c r="D250" s="255" t="s">
+      <c r="J257" s="249"/>
+    </row>
+    <row r="258" spans="2:10" s="247" customFormat="1">
+      <c r="B258" s="248"/>
+      <c r="D258" s="254" t="s">
         <v>165</v>
       </c>
-      <c r="E250" s="257">
-        <f>F245</f>
+      <c r="E258" s="256">
+        <f>F253</f>
         <v>5.7833333333333327E-2</v>
       </c>
-      <c r="F250" s="248" t="s">
+      <c r="F258" s="247" t="s">
         <v>175</v>
       </c>
-      <c r="J250" s="250"/>
-    </row>
-    <row r="251" spans="2:10" s="248" customFormat="1">
-      <c r="B251" s="249"/>
-      <c r="J251" s="250"/>
-    </row>
-    <row r="252" spans="2:10" s="248" customFormat="1">
-      <c r="B252" s="249"/>
-      <c r="C252" s="256"/>
-      <c r="D252" s="248" t="s">
+      <c r="J258" s="249"/>
+    </row>
+    <row r="259" spans="2:10" s="247" customFormat="1">
+      <c r="B259" s="248"/>
+      <c r="J259" s="249"/>
+    </row>
+    <row r="260" spans="2:10" s="247" customFormat="1">
+      <c r="B260" s="248"/>
+      <c r="C260" s="255"/>
+      <c r="D260" s="247" t="s">
         <v>247</v>
       </c>
-      <c r="J252" s="250"/>
-    </row>
-    <row r="253" spans="2:10" s="248" customFormat="1">
-      <c r="B253" s="249"/>
-      <c r="D253" s="248" t="s">
+      <c r="J260" s="249"/>
+    </row>
+    <row r="261" spans="2:10" s="247" customFormat="1">
+      <c r="B261" s="248"/>
+      <c r="D261" s="247" t="s">
         <v>246</v>
       </c>
-      <c r="J253" s="250"/>
-    </row>
-    <row r="254" spans="2:10" s="248" customFormat="1">
-      <c r="B254" s="249"/>
-      <c r="J254" s="250"/>
-    </row>
-    <row r="255" spans="2:10" s="248" customFormat="1">
-      <c r="B255" s="249"/>
-      <c r="J255" s="272"/>
-    </row>
-    <row r="256" spans="2:10" s="273" customFormat="1">
-      <c r="B256" s="274"/>
-      <c r="C256" s="18" t="s">
+      <c r="J261" s="249"/>
+    </row>
+    <row r="262" spans="2:10" s="247" customFormat="1">
+      <c r="B262" s="248"/>
+      <c r="J262" s="249"/>
+    </row>
+    <row r="263" spans="2:10" s="247" customFormat="1">
+      <c r="B263" s="248"/>
+      <c r="J263" s="262"/>
+    </row>
+    <row r="264" spans="2:10" s="263" customFormat="1">
+      <c r="B264" s="264"/>
+      <c r="C264" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D256" s="273" t="s">
+      <c r="D264" s="263" t="s">
         <v>252</v>
       </c>
-      <c r="J256" s="275"/>
-    </row>
-    <row r="257" spans="1:10" s="273" customFormat="1">
-      <c r="B257" s="274"/>
-      <c r="C257" s="18"/>
-      <c r="D257" s="273" t="s">
+      <c r="J264" s="265"/>
+    </row>
+    <row r="265" spans="2:10" s="263" customFormat="1">
+      <c r="B265" s="264"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="263" t="s">
         <v>253</v>
       </c>
-      <c r="E257" s="273" t="s">
+      <c r="E265" s="263" t="s">
         <v>179</v>
       </c>
-      <c r="J257" s="275"/>
-    </row>
-    <row r="258" spans="1:10" s="273" customFormat="1">
-      <c r="B258" s="274"/>
-      <c r="J258" s="275"/>
-    </row>
-    <row r="259" spans="1:10" s="273" customFormat="1">
-      <c r="B259" s="274"/>
-      <c r="D259" s="276" t="s">
+      <c r="J265" s="265"/>
+    </row>
+    <row r="266" spans="2:10" s="263" customFormat="1">
+      <c r="B266" s="264"/>
+      <c r="J266" s="265"/>
+    </row>
+    <row r="267" spans="2:10" s="263" customFormat="1">
+      <c r="B267" s="264"/>
+      <c r="D267" s="266" t="s">
         <v>44</v>
       </c>
-      <c r="E259" s="277">
+      <c r="E267" s="267">
         <v>15</v>
       </c>
-      <c r="F259" s="278" t="s">
+      <c r="F267" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="G259" s="278"/>
-      <c r="J259" s="275"/>
-    </row>
-    <row r="260" spans="1:10" s="273" customFormat="1">
-      <c r="B260" s="274"/>
-      <c r="D260" s="276" t="s">
+      <c r="G267" s="268"/>
+      <c r="J267" s="265"/>
+    </row>
+    <row r="268" spans="2:10" s="263" customFormat="1">
+      <c r="B268" s="264"/>
+      <c r="D268" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="E260" s="273">
+      <c r="E268" s="263">
         <v>1000</v>
       </c>
-      <c r="F260" s="273" t="s">
+      <c r="F268" s="263" t="s">
         <v>28</v>
       </c>
-      <c r="J260" s="275"/>
-    </row>
-    <row r="261" spans="1:10" s="273" customFormat="1">
-      <c r="B261" s="274"/>
-      <c r="D261" s="276" t="s">
+      <c r="J268" s="265"/>
+    </row>
+    <row r="269" spans="2:10" s="263" customFormat="1">
+      <c r="B269" s="264"/>
+      <c r="D269" s="266" t="s">
         <v>40</v>
       </c>
-      <c r="E261" s="273">
+      <c r="E269" s="263">
         <v>200</v>
       </c>
-      <c r="F261" s="273" t="s">
+      <c r="F269" s="263" t="s">
         <v>47</v>
       </c>
-      <c r="J261" s="275"/>
-    </row>
-    <row r="262" spans="1:10" s="273" customFormat="1">
-      <c r="B262" s="274"/>
-      <c r="D262" s="276" t="s">
+      <c r="J269" s="265"/>
+    </row>
+    <row r="270" spans="2:10" s="263" customFormat="1">
+      <c r="B270" s="264"/>
+      <c r="D270" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="E262" s="279">
-        <f>H263/1000</f>
+      <c r="E270" s="269">
+        <f>H271/1000</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F262" s="273" t="s">
+      <c r="F270" s="263" t="s">
         <v>58</v>
       </c>
-      <c r="J262" s="275"/>
-    </row>
-    <row r="263" spans="1:10" s="273" customFormat="1">
-      <c r="B263" s="274"/>
-      <c r="H263" s="273">
+      <c r="J270" s="265"/>
+    </row>
+    <row r="271" spans="2:10" s="263" customFormat="1">
+      <c r="B271" s="264"/>
+      <c r="H271" s="263">
         <v>5</v>
       </c>
-      <c r="I263" s="273" t="s">
+      <c r="I271" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="J263" s="275"/>
-    </row>
-    <row r="264" spans="1:10" s="273" customFormat="1">
-      <c r="B264" s="274"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="133"/>
-      <c r="J264" s="275"/>
-    </row>
-    <row r="265" spans="1:10" s="273" customFormat="1">
-      <c r="B265" s="274"/>
-      <c r="D265" s="273" t="s">
+      <c r="J271" s="265"/>
+    </row>
+    <row r="272" spans="2:10" s="263" customFormat="1">
+      <c r="B272" s="264"/>
+      <c r="C272" s="18"/>
+      <c r="D272" s="133"/>
+      <c r="J272" s="265"/>
+    </row>
+    <row r="273" spans="1:10" s="263" customFormat="1">
+      <c r="B273" s="264"/>
+      <c r="D273" s="263" t="s">
         <v>254</v>
       </c>
-      <c r="E265" s="273">
+      <c r="E273" s="263">
         <v>7</v>
       </c>
-      <c r="F265" s="273" t="s">
+      <c r="F273" s="263" t="s">
         <v>180</v>
       </c>
-      <c r="J265" s="275"/>
-    </row>
-    <row r="266" spans="1:10" s="273" customFormat="1">
-      <c r="A266" s="103"/>
-      <c r="B266" s="104"/>
-      <c r="D266" s="18" t="s">
+      <c r="J273" s="265"/>
+    </row>
+    <row r="274" spans="1:10" s="263" customFormat="1">
+      <c r="A274" s="103"/>
+      <c r="B274" s="104"/>
+      <c r="D274" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="E266" s="273">
-        <f>H263/(E265*E250+E249)/1000</f>
+      <c r="E274" s="263">
+        <f>H271/(E273*E258+E257)/1000</f>
         <v>1.8327326043130307E-3</v>
       </c>
-      <c r="F266" s="273" t="s">
+      <c r="F274" s="263" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="267" spans="1:10" s="273" customFormat="1">
-      <c r="A267" s="103"/>
-      <c r="B267" s="104"/>
-    </row>
-    <row r="268" spans="1:10" s="273" customFormat="1">
-      <c r="A268" s="103"/>
-      <c r="B268" s="104"/>
-      <c r="D268" s="133" t="str">
+    <row r="275" spans="1:10" s="263" customFormat="1">
+      <c r="A275" s="103"/>
+      <c r="B275" s="104"/>
+    </row>
+    <row r="276" spans="1:10" s="263" customFormat="1">
+      <c r="A276" s="103"/>
+      <c r="B276" s="104"/>
+      <c r="D276" s="133" t="str">
         <f>[2]Dashboard!C$22</f>
         <v>storage.volume</v>
       </c>
-      <c r="E268" s="273">
+      <c r="E276" s="263">
         <v>0</v>
       </c>
-      <c r="F268" s="273" t="s">
+      <c r="F276" s="263" t="s">
         <v>167</v>
       </c>
-      <c r="G268" s="273" t="s">
+      <c r="G276" s="263" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="273" customFormat="1">
-      <c r="A269" s="103"/>
-      <c r="B269" s="104"/>
-    </row>
-    <row r="270" spans="1:10" s="273" customFormat="1">
-      <c r="A270" s="103"/>
-      <c r="B270" s="104"/>
-    </row>
-    <row r="271" spans="1:10" s="273" customFormat="1">
-      <c r="A271" s="103"/>
-      <c r="B271" s="104"/>
-    </row>
-    <row r="272" spans="1:10" s="273" customFormat="1">
-      <c r="A272" s="103"/>
-      <c r="B272" s="104"/>
-    </row>
-    <row r="273" spans="2:10" s="125" customFormat="1">
-      <c r="B273" s="126"/>
-      <c r="C273" s="132" t="str">
-        <f>'Research data'!M3</f>
+    <row r="277" spans="1:10" s="263" customFormat="1">
+      <c r="A277" s="103"/>
+      <c r="B277" s="104"/>
+    </row>
+    <row r="278" spans="1:10" s="263" customFormat="1">
+      <c r="A278" s="103"/>
+      <c r="B278" s="104"/>
+    </row>
+    <row r="279" spans="1:10" s="263" customFormat="1">
+      <c r="A279" s="103"/>
+      <c r="B279" s="104"/>
+    </row>
+    <row r="280" spans="1:10" s="263" customFormat="1">
+      <c r="A280" s="103"/>
+      <c r="B280" s="104"/>
+    </row>
+    <row r="281" spans="1:10" s="125" customFormat="1">
+      <c r="B281" s="126"/>
+      <c r="C281" s="132" t="str">
+        <f>'Research data'!N3</f>
         <v>ISSO 72 and Quintel calc</v>
       </c>
-      <c r="D273" s="130"/>
-      <c r="G273" s="125" t="s">
+      <c r="D281" s="130"/>
+      <c r="G281" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="I273" s="127"/>
-      <c r="J273" s="128"/>
-    </row>
-    <row r="274" spans="2:10" s="125" customFormat="1">
-      <c r="B274" s="126"/>
-      <c r="C274" s="12"/>
-      <c r="D274" s="125" t="s">
-        <v>177</v>
-      </c>
-      <c r="E274" s="131">
-        <v>10</v>
-      </c>
-      <c r="F274" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="I274" s="127"/>
-      <c r="J274" s="128"/>
-    </row>
-    <row r="275" spans="2:10" s="125" customFormat="1">
-      <c r="B275" s="126"/>
-      <c r="C275" s="12"/>
-      <c r="D275" s="125" t="s">
-        <v>181</v>
-      </c>
-      <c r="E275" s="131">
-        <v>10</v>
-      </c>
-      <c r="F275" s="131" t="s">
-        <v>182</v>
-      </c>
-      <c r="I275" s="127"/>
-      <c r="J275" s="128"/>
-    </row>
-    <row r="276" spans="2:10" s="125" customFormat="1">
-      <c r="B276" s="126"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="125" t="s">
-        <v>183</v>
-      </c>
-      <c r="E276" s="131">
-        <v>4.18</v>
-      </c>
-      <c r="F276" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="I276" s="127"/>
-      <c r="J276" s="128"/>
-    </row>
-    <row r="277" spans="2:10" s="125" customFormat="1">
-      <c r="B277" s="126"/>
-      <c r="C277" s="12"/>
-      <c r="D277" s="125" t="s">
-        <v>185</v>
-      </c>
-      <c r="E277" s="131">
-        <v>10</v>
-      </c>
-      <c r="F277" s="131" t="s">
-        <v>180</v>
-      </c>
-      <c r="G277" s="125" t="s">
-        <v>186</v>
-      </c>
-      <c r="I277" s="127"/>
-      <c r="J277" s="128"/>
-    </row>
-    <row r="278" spans="2:10" s="125" customFormat="1">
-      <c r="B278" s="126"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="E278" s="135">
-        <f>E274*60*E275/E276/E277</f>
-        <v>143.54066985645935</v>
-      </c>
-      <c r="F278" s="131" t="s">
-        <v>188</v>
-      </c>
-      <c r="I278" s="127"/>
-      <c r="J278" s="128"/>
-    </row>
-    <row r="279" spans="2:10" s="125" customFormat="1">
-      <c r="B279" s="126"/>
-      <c r="C279" s="12"/>
-      <c r="D279" s="125" t="s">
-        <v>189</v>
-      </c>
-      <c r="E279" s="208">
-        <v>3600000</v>
-      </c>
-      <c r="F279" s="131" t="s">
-        <v>202</v>
-      </c>
-      <c r="I279" s="127"/>
-      <c r="J279" s="128"/>
-    </row>
-    <row r="280" spans="2:10" s="125" customFormat="1">
-      <c r="B280" s="126"/>
-      <c r="C280" s="12"/>
-      <c r="D280" s="133" t="str">
-        <f>Dashboard!C$22</f>
-        <v>storage.volume</v>
-      </c>
-      <c r="E280" s="207">
-        <f>MROUND(E278*E277*E276/E279,0.0001)</f>
-        <v>1.7000000000000001E-3</v>
-      </c>
-      <c r="F280" s="131" t="s">
-        <v>167</v>
-      </c>
-      <c r="H280"/>
-      <c r="I280" s="127"/>
-      <c r="J280" s="128"/>
-    </row>
-    <row r="281" spans="2:10" s="125" customFormat="1">
-      <c r="B281" s="126"/>
-      <c r="C281" s="12"/>
       <c r="I281" s="127"/>
       <c r="J281" s="128"/>
     </row>
-    <row r="282" spans="2:10" s="125" customFormat="1">
+    <row r="282" spans="1:10" s="125" customFormat="1">
       <c r="B282" s="126"/>
-      <c r="C282" s="12" t="s">
-        <v>192</v>
-      </c>
+      <c r="C282" s="12"/>
       <c r="D282" s="125" t="s">
         <v>177</v>
       </c>
       <c r="E282" s="131">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F282" s="131" t="s">
         <v>178</v>
@@ -10647,7 +10768,7 @@
       <c r="I282" s="127"/>
       <c r="J282" s="128"/>
     </row>
-    <row r="283" spans="2:10" s="125" customFormat="1">
+    <row r="283" spans="1:10" s="125" customFormat="1">
       <c r="B283" s="126"/>
       <c r="C283" s="12"/>
       <c r="D283" s="125" t="s">
@@ -10662,7 +10783,7 @@
       <c r="I283" s="127"/>
       <c r="J283" s="128"/>
     </row>
-    <row r="284" spans="2:10" s="125" customFormat="1">
+    <row r="284" spans="1:10" s="125" customFormat="1">
       <c r="B284" s="126"/>
       <c r="C284" s="12"/>
       <c r="D284" s="125" t="s">
@@ -10677,7 +10798,7 @@
       <c r="I284" s="127"/>
       <c r="J284" s="128"/>
     </row>
-    <row r="285" spans="2:10" s="125" customFormat="1">
+    <row r="285" spans="1:10" s="125" customFormat="1">
       <c r="B285" s="126"/>
       <c r="C285" s="12"/>
       <c r="D285" s="125" t="s">
@@ -10695,7 +10816,7 @@
       <c r="I285" s="127"/>
       <c r="J285" s="128"/>
     </row>
-    <row r="286" spans="2:10" s="125" customFormat="1">
+    <row r="286" spans="1:10" s="125" customFormat="1">
       <c r="B286" s="126"/>
       <c r="C286" s="12"/>
       <c r="D286" s="125" t="s">
@@ -10703,7 +10824,7 @@
       </c>
       <c r="E286" s="135">
         <f>E282*60*E283/E284/E285</f>
-        <v>287.08133971291869</v>
+        <v>143.54066985645935</v>
       </c>
       <c r="F286" s="131" t="s">
         <v>188</v>
@@ -10711,7 +10832,7 @@
       <c r="I286" s="127"/>
       <c r="J286" s="128"/>
     </row>
-    <row r="287" spans="2:10" s="125" customFormat="1">
+    <row r="287" spans="1:10" s="125" customFormat="1">
       <c r="B287" s="126"/>
       <c r="C287" s="12"/>
       <c r="D287" s="125" t="s">
@@ -10721,326 +10842,334 @@
         <v>3600000</v>
       </c>
       <c r="F287" s="131" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="I287" s="127"/>
       <c r="J287" s="128"/>
     </row>
-    <row r="288" spans="2:10" s="125" customFormat="1">
+    <row r="288" spans="1:10" s="125" customFormat="1">
       <c r="B288" s="126"/>
       <c r="C288" s="12"/>
       <c r="D288" s="133" t="str">
+        <f>Dashboard!C$22</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="E288" s="207">
+        <f>MROUND(E286*E285*E284/E287,0.0001)</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="F288" s="131" t="s">
+        <v>167</v>
+      </c>
+      <c r="H288"/>
+      <c r="I288" s="127"/>
+      <c r="J288" s="128"/>
+    </row>
+    <row r="289" spans="2:10" s="125" customFormat="1">
+      <c r="B289" s="126"/>
+      <c r="C289" s="12"/>
+      <c r="I289" s="127"/>
+      <c r="J289" s="128"/>
+    </row>
+    <row r="290" spans="2:10" s="125" customFormat="1">
+      <c r="B290" s="126"/>
+      <c r="C290" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D290" s="125" t="s">
+        <v>177</v>
+      </c>
+      <c r="E290" s="131">
+        <v>20</v>
+      </c>
+      <c r="F290" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="I290" s="127"/>
+      <c r="J290" s="128"/>
+    </row>
+    <row r="291" spans="2:10" s="125" customFormat="1">
+      <c r="B291" s="126"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="E291" s="131">
+        <v>10</v>
+      </c>
+      <c r="F291" s="131" t="s">
+        <v>182</v>
+      </c>
+      <c r="I291" s="127"/>
+      <c r="J291" s="128"/>
+    </row>
+    <row r="292" spans="2:10" s="125" customFormat="1">
+      <c r="B292" s="126"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="E292" s="131">
+        <v>4.18</v>
+      </c>
+      <c r="F292" s="131" t="s">
+        <v>184</v>
+      </c>
+      <c r="I292" s="127"/>
+      <c r="J292" s="128"/>
+    </row>
+    <row r="293" spans="2:10" s="125" customFormat="1">
+      <c r="B293" s="126"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="E293" s="131">
+        <v>10</v>
+      </c>
+      <c r="F293" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="G293" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="I293" s="127"/>
+      <c r="J293" s="128"/>
+    </row>
+    <row r="294" spans="2:10" s="125" customFormat="1">
+      <c r="B294" s="126"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="E294" s="135">
+        <f>E290*60*E291/E292/E293</f>
+        <v>287.08133971291869</v>
+      </c>
+      <c r="F294" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="I294" s="127"/>
+      <c r="J294" s="128"/>
+    </row>
+    <row r="295" spans="2:10" s="125" customFormat="1">
+      <c r="B295" s="126"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="E295" s="208">
+        <v>3600000</v>
+      </c>
+      <c r="F295" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="I295" s="127"/>
+      <c r="J295" s="128"/>
+    </row>
+    <row r="296" spans="2:10" s="125" customFormat="1">
+      <c r="B296" s="126"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="133" t="str">
         <f>Dashboard!C22</f>
         <v>storage.volume</v>
       </c>
-      <c r="E288" s="207">
-        <f>MROUND(E286*E285*E284/E287,0.0001)</f>
+      <c r="E296" s="207">
+        <f>MROUND(E294*E293*E292/E295,0.0001)</f>
         <v>3.3E-3</v>
       </c>
-      <c r="F288" s="131" t="s">
+      <c r="F296" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="I288" s="127"/>
-      <c r="J288" s="128"/>
-    </row>
-    <row r="289" spans="1:10" s="125" customFormat="1">
-      <c r="B289" s="126"/>
-      <c r="J289" s="128"/>
-    </row>
-    <row r="290" spans="1:10" s="125" customFormat="1">
-      <c r="B290" s="126"/>
-      <c r="J290" s="128"/>
-    </row>
-    <row r="291" spans="1:10" s="125" customFormat="1">
-      <c r="B291" s="126"/>
-      <c r="J291" s="128"/>
-    </row>
-    <row r="292" spans="1:10" s="125" customFormat="1">
-      <c r="B292" s="126"/>
-      <c r="J292" s="128"/>
-    </row>
-    <row r="293" spans="1:10" s="125" customFormat="1">
-      <c r="B293" s="126"/>
-      <c r="J293" s="128"/>
-    </row>
-    <row r="294" spans="1:10" s="125" customFormat="1">
-      <c r="B294" s="126"/>
-      <c r="J294" s="128"/>
-    </row>
-    <row r="295" spans="1:10" s="125" customFormat="1">
-      <c r="B295" s="126"/>
-      <c r="J295" s="128"/>
-    </row>
-    <row r="296" spans="1:10" s="125" customFormat="1">
-      <c r="B296" s="126"/>
+      <c r="I296" s="127"/>
       <c r="J296" s="128"/>
     </row>
-    <row r="297" spans="1:10" s="125" customFormat="1">
+    <row r="297" spans="2:10" s="125" customFormat="1">
       <c r="B297" s="126"/>
       <c r="J297" s="128"/>
     </row>
-    <row r="298" spans="1:10">
-      <c r="A298" s="103"/>
-      <c r="B298" s="104"/>
-    </row>
-    <row r="299" spans="1:10" s="125" customFormat="1">
+    <row r="298" spans="2:10" s="125" customFormat="1">
+      <c r="B298" s="126"/>
+      <c r="J298" s="128"/>
+    </row>
+    <row r="299" spans="2:10" s="125" customFormat="1">
       <c r="B299" s="126"/>
-      <c r="C299" s="127"/>
-      <c r="D299" s="127"/>
-      <c r="E299" s="127"/>
-      <c r="F299" s="127"/>
-      <c r="G299" s="127"/>
-      <c r="H299" s="127"/>
-      <c r="I299" s="127"/>
       <c r="J299" s="128"/>
     </row>
-    <row r="300" spans="1:10" s="125" customFormat="1">
+    <row r="300" spans="2:10" s="125" customFormat="1">
       <c r="B300" s="126"/>
-      <c r="C300" s="234" t="s">
-        <v>204</v>
-      </c>
-      <c r="D300" s="234"/>
-      <c r="E300" s="127"/>
-      <c r="F300" s="127"/>
-      <c r="G300" s="127"/>
-      <c r="H300" s="127"/>
-      <c r="I300" s="127"/>
       <c r="J300" s="128"/>
     </row>
-    <row r="301" spans="1:10" s="125" customFormat="1">
+    <row r="301" spans="2:10" s="125" customFormat="1">
       <c r="B301" s="126"/>
-      <c r="C301" s="127"/>
-      <c r="D301" s="127" t="s">
-        <v>205</v>
-      </c>
-      <c r="E301" s="131">
-        <v>4.18</v>
-      </c>
-      <c r="F301" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="G301" s="127"/>
-      <c r="H301" s="127"/>
-      <c r="I301" s="127"/>
       <c r="J301" s="128"/>
     </row>
-    <row r="302" spans="1:10" s="125" customFormat="1">
+    <row r="302" spans="2:10" s="125" customFormat="1">
       <c r="B302" s="126"/>
-      <c r="C302" s="127"/>
-      <c r="D302" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="E302" s="131">
-        <v>10</v>
-      </c>
-      <c r="F302" s="131" t="s">
-        <v>180</v>
-      </c>
-      <c r="G302" s="127"/>
-      <c r="H302" s="127"/>
-      <c r="I302" s="127"/>
       <c r="J302" s="128"/>
     </row>
-    <row r="303" spans="1:10" s="125" customFormat="1">
+    <row r="303" spans="2:10" s="125" customFormat="1">
       <c r="B303" s="126"/>
-      <c r="C303" s="127"/>
-      <c r="D303" s="127"/>
-      <c r="E303" s="127">
-        <f>E301*E302</f>
-        <v>41.8</v>
-      </c>
-      <c r="F303" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="G303" s="127"/>
-      <c r="H303" s="127"/>
-      <c r="I303" s="127"/>
       <c r="J303" s="128"/>
     </row>
-    <row r="304" spans="1:10" s="125" customFormat="1">
+    <row r="304" spans="2:10" s="125" customFormat="1">
       <c r="B304" s="126"/>
-      <c r="C304" s="127"/>
-      <c r="D304" s="127"/>
-      <c r="E304" s="127">
-        <v>3600000</v>
-      </c>
-      <c r="F304" s="127" t="s">
-        <v>208</v>
-      </c>
-      <c r="G304" s="127"/>
-      <c r="H304" s="127"/>
-      <c r="I304" s="127"/>
       <c r="J304" s="128"/>
     </row>
-    <row r="305" spans="2:10" s="125" customFormat="1">
+    <row r="305" spans="1:10" s="125" customFormat="1">
       <c r="B305" s="126"/>
-      <c r="C305" s="127"/>
-      <c r="D305" s="127"/>
-      <c r="E305" s="209">
-        <f>E303/E304</f>
-        <v>1.161111111111111E-5</v>
-      </c>
-      <c r="F305" s="127" t="s">
-        <v>209</v>
-      </c>
-      <c r="G305" s="127"/>
-      <c r="H305" s="127"/>
-      <c r="I305" s="127"/>
       <c r="J305" s="128"/>
     </row>
-    <row r="306" spans="2:10" s="125" customFormat="1">
-      <c r="B306" s="126"/>
-      <c r="C306" s="127"/>
-      <c r="D306" s="127"/>
-      <c r="E306" s="125">
-        <v>500</v>
-      </c>
-      <c r="F306" s="125" t="s">
-        <v>188</v>
-      </c>
-      <c r="G306" s="127"/>
-      <c r="H306" s="127"/>
-      <c r="I306" s="127"/>
-      <c r="J306" s="128"/>
-    </row>
-    <row r="307" spans="2:10" s="125" customFormat="1">
+    <row r="306" spans="1:10">
+      <c r="A306" s="103"/>
+      <c r="B306" s="104"/>
+    </row>
+    <row r="307" spans="1:10" s="125" customFormat="1">
       <c r="B307" s="126"/>
       <c r="C307" s="127"/>
-      <c r="D307" s="127" t="s">
-        <v>210</v>
-      </c>
-      <c r="E307" s="127">
-        <v>1159</v>
-      </c>
-      <c r="F307" s="125" t="s">
-        <v>28</v>
-      </c>
+      <c r="D307" s="127"/>
+      <c r="E307" s="127"/>
+      <c r="F307" s="127"/>
       <c r="G307" s="127"/>
       <c r="H307" s="127"/>
       <c r="I307" s="127"/>
       <c r="J307" s="128"/>
     </row>
-    <row r="308" spans="2:10" s="125" customFormat="1">
+    <row r="308" spans="1:10" s="125" customFormat="1">
       <c r="B308" s="126"/>
-      <c r="C308" s="127"/>
-      <c r="D308" s="127" t="s">
-        <v>211</v>
-      </c>
-      <c r="E308" s="134">
-        <f>E307/1.21</f>
-        <v>957.85123966942149</v>
-      </c>
-      <c r="F308" s="125" t="s">
-        <v>28</v>
-      </c>
+      <c r="C308" s="233" t="s">
+        <v>204</v>
+      </c>
+      <c r="D308" s="233"/>
+      <c r="E308" s="127"/>
+      <c r="F308" s="127"/>
       <c r="G308" s="127"/>
       <c r="H308" s="127"/>
       <c r="I308" s="127"/>
       <c r="J308" s="128"/>
     </row>
-    <row r="309" spans="2:10" s="125" customFormat="1">
+    <row r="309" spans="1:10" s="125" customFormat="1">
       <c r="B309" s="126"/>
       <c r="C309" s="127"/>
       <c r="D309" s="127" t="s">
-        <v>212</v>
-      </c>
-      <c r="E309" s="210">
-        <f>E308/E306</f>
-        <v>1.9157024793388431</v>
-      </c>
-      <c r="F309" s="125" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="E309" s="131">
+        <v>4.18</v>
+      </c>
+      <c r="F309" s="131" t="s">
+        <v>184</v>
       </c>
       <c r="G309" s="127"/>
       <c r="H309" s="127"/>
       <c r="I309" s="127"/>
       <c r="J309" s="128"/>
     </row>
-    <row r="310" spans="2:10" s="125" customFormat="1">
+    <row r="310" spans="1:10" s="125" customFormat="1">
       <c r="B310" s="126"/>
       <c r="C310" s="127"/>
+      <c r="D310" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E310" s="131">
+        <v>10</v>
+      </c>
+      <c r="F310" s="131" t="s">
+        <v>180</v>
+      </c>
       <c r="G310" s="127"/>
       <c r="H310" s="127"/>
       <c r="I310" s="127"/>
       <c r="J310" s="128"/>
     </row>
-    <row r="311" spans="2:10" s="125" customFormat="1">
+    <row r="311" spans="1:10" s="125" customFormat="1">
       <c r="B311" s="126"/>
       <c r="C311" s="127"/>
-      <c r="D311" s="235" t="e">
-        <f>Dashboard!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E311" s="236">
-        <f>E309/E305</f>
-        <v>164988.7302779865</v>
+      <c r="D311" s="127"/>
+      <c r="E311" s="127">
+        <f>E309*E310</f>
+        <v>41.8</v>
       </c>
       <c r="F311" s="127" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="G311" s="127"/>
       <c r="H311" s="127"/>
       <c r="I311" s="127"/>
       <c r="J311" s="128"/>
     </row>
-    <row r="312" spans="2:10" s="125" customFormat="1">
+    <row r="312" spans="1:10" s="125" customFormat="1">
       <c r="B312" s="126"/>
       <c r="C312" s="127"/>
-      <c r="D312" s="235"/>
-      <c r="E312" s="237"/>
-      <c r="F312" s="127"/>
+      <c r="D312" s="127"/>
+      <c r="E312" s="127">
+        <v>3600000</v>
+      </c>
+      <c r="F312" s="127" t="s">
+        <v>208</v>
+      </c>
       <c r="G312" s="127"/>
       <c r="H312" s="127"/>
       <c r="I312" s="127"/>
       <c r="J312" s="128"/>
     </row>
-    <row r="313" spans="2:10" s="125" customFormat="1">
+    <row r="313" spans="1:10" s="125" customFormat="1">
       <c r="B313" s="126"/>
       <c r="C313" s="127"/>
-      <c r="D313" s="235"/>
-      <c r="E313" s="237"/>
-      <c r="F313" s="127"/>
+      <c r="D313" s="127"/>
+      <c r="E313" s="209">
+        <f>E311/E312</f>
+        <v>1.161111111111111E-5</v>
+      </c>
+      <c r="F313" s="127" t="s">
+        <v>209</v>
+      </c>
       <c r="G313" s="127"/>
       <c r="H313" s="127"/>
       <c r="I313" s="127"/>
       <c r="J313" s="128"/>
     </row>
-    <row r="314" spans="2:10" s="125" customFormat="1">
+    <row r="314" spans="1:10" s="125" customFormat="1">
       <c r="B314" s="126"/>
       <c r="C314" s="127"/>
-      <c r="D314" s="235"/>
-      <c r="E314" s="237"/>
-      <c r="F314" s="127"/>
+      <c r="D314" s="127"/>
+      <c r="E314" s="125">
+        <v>500</v>
+      </c>
+      <c r="F314" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="G314" s="127"/>
       <c r="H314" s="127"/>
       <c r="I314" s="127"/>
       <c r="J314" s="128"/>
     </row>
-    <row r="315" spans="2:10" s="125" customFormat="1">
+    <row r="315" spans="1:10" s="125" customFormat="1">
       <c r="B315" s="126"/>
-      <c r="C315" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D315" s="127"/>
-      <c r="E315" s="125">
-        <v>300</v>
+      <c r="C315" s="127"/>
+      <c r="D315" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="E315" s="127">
+        <v>1159</v>
       </c>
       <c r="F315" s="125" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="G315" s="127"/>
       <c r="H315" s="127"/>
       <c r="I315" s="127"/>
       <c r="J315" s="128"/>
     </row>
-    <row r="316" spans="2:10" s="125" customFormat="1">
+    <row r="316" spans="1:10" s="125" customFormat="1">
       <c r="B316" s="126"/>
       <c r="C316" s="127"/>
       <c r="D316" s="127" t="s">
         <v>211</v>
       </c>
       <c r="E316" s="134">
-        <v>539</v>
+        <f>E315/1.21</f>
+        <v>957.85123966942149</v>
       </c>
       <c r="F316" s="125" t="s">
         <v>28</v>
@@ -11050,15 +11179,15 @@
       <c r="I316" s="127"/>
       <c r="J316" s="128"/>
     </row>
-    <row r="317" spans="2:10" s="125" customFormat="1">
+    <row r="317" spans="1:10" s="125" customFormat="1">
       <c r="B317" s="126"/>
       <c r="C317" s="127"/>
       <c r="D317" s="127" t="s">
         <v>212</v>
       </c>
       <c r="E317" s="210">
-        <f>E316/E315</f>
-        <v>1.7966666666666666</v>
+        <f>E316/E314</f>
+        <v>1.9157024793388431</v>
       </c>
       <c r="F317" s="125" t="s">
         <v>213</v>
@@ -11068,7 +11197,7 @@
       <c r="I317" s="127"/>
       <c r="J317" s="128"/>
     </row>
-    <row r="318" spans="2:10" s="125" customFormat="1">
+    <row r="318" spans="1:10" s="125" customFormat="1">
       <c r="B318" s="126"/>
       <c r="C318" s="127"/>
       <c r="G318" s="127"/>
@@ -11076,16 +11205,16 @@
       <c r="I318" s="127"/>
       <c r="J318" s="128"/>
     </row>
-    <row r="319" spans="2:10" s="125" customFormat="1">
+    <row r="319" spans="1:10" s="125" customFormat="1">
       <c r="B319" s="126"/>
       <c r="C319" s="127"/>
-      <c r="D319" s="235" t="e">
+      <c r="D319" s="234" t="e">
         <f>Dashboard!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E319" s="236">
-        <f>E317/E305</f>
-        <v>154736.84210526317</v>
+      <c r="E319" s="235">
+        <f>E317/E313</f>
+        <v>164988.7302779865</v>
       </c>
       <c r="F319" s="127" t="s">
         <v>168</v>
@@ -11095,9 +11224,12 @@
       <c r="I319" s="127"/>
       <c r="J319" s="128"/>
     </row>
-    <row r="320" spans="2:10" s="125" customFormat="1">
+    <row r="320" spans="1:10" s="125" customFormat="1">
       <c r="B320" s="126"/>
       <c r="C320" s="127"/>
+      <c r="D320" s="234"/>
+      <c r="E320" s="236"/>
+      <c r="F320" s="127"/>
       <c r="G320" s="127"/>
       <c r="H320" s="127"/>
       <c r="I320" s="127"/>
@@ -11106,8 +11238,8 @@
     <row r="321" spans="2:10" s="125" customFormat="1">
       <c r="B321" s="126"/>
       <c r="C321" s="127"/>
-      <c r="D321" s="235"/>
-      <c r="E321" s="237"/>
+      <c r="D321" s="234"/>
+      <c r="E321" s="236"/>
       <c r="F321" s="127"/>
       <c r="G321" s="127"/>
       <c r="H321" s="127"/>
@@ -11117,8 +11249,8 @@
     <row r="322" spans="2:10" s="125" customFormat="1">
       <c r="B322" s="126"/>
       <c r="C322" s="127"/>
-      <c r="D322" s="235"/>
-      <c r="E322" s="237"/>
+      <c r="D322" s="234"/>
+      <c r="E322" s="236"/>
       <c r="F322" s="127"/>
       <c r="G322" s="127"/>
       <c r="H322" s="127"/>
@@ -11127,10 +11259,16 @@
     </row>
     <row r="323" spans="2:10" s="125" customFormat="1">
       <c r="B323" s="126"/>
-      <c r="C323" s="127"/>
-      <c r="D323" s="235"/>
-      <c r="E323" s="237"/>
-      <c r="F323" s="127"/>
+      <c r="C323" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D323" s="127"/>
+      <c r="E323" s="125">
+        <v>300</v>
+      </c>
+      <c r="F323" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="G323" s="127"/>
       <c r="H323" s="127"/>
       <c r="I323" s="127"/>
@@ -11139,9 +11277,15 @@
     <row r="324" spans="2:10" s="125" customFormat="1">
       <c r="B324" s="126"/>
       <c r="C324" s="127"/>
-      <c r="D324" s="235"/>
-      <c r="E324" s="237"/>
-      <c r="F324" s="127"/>
+      <c r="D324" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="E324" s="134">
+        <v>539</v>
+      </c>
+      <c r="F324" s="125" t="s">
+        <v>28</v>
+      </c>
       <c r="G324" s="127"/>
       <c r="H324" s="127"/>
       <c r="I324" s="127"/>
@@ -11150,9 +11294,16 @@
     <row r="325" spans="2:10" s="125" customFormat="1">
       <c r="B325" s="126"/>
       <c r="C325" s="127"/>
-      <c r="D325" s="235"/>
-      <c r="E325" s="237"/>
-      <c r="F325" s="127"/>
+      <c r="D325" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="E325" s="210">
+        <f>E324/E323</f>
+        <v>1.7966666666666666</v>
+      </c>
+      <c r="F325" s="125" t="s">
+        <v>213</v>
+      </c>
       <c r="G325" s="127"/>
       <c r="H325" s="127"/>
       <c r="I325" s="127"/>
@@ -11161,9 +11312,6 @@
     <row r="326" spans="2:10" s="125" customFormat="1">
       <c r="B326" s="126"/>
       <c r="C326" s="127"/>
-      <c r="D326" s="235"/>
-      <c r="E326" s="237"/>
-      <c r="F326" s="127"/>
       <c r="G326" s="127"/>
       <c r="H326" s="127"/>
       <c r="I326" s="127"/>
@@ -11171,22 +11319,19 @@
     </row>
     <row r="327" spans="2:10" s="125" customFormat="1">
       <c r="B327" s="126"/>
-      <c r="C327" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D327" s="239" t="str">
-        <f>Dashboard!C33</f>
-        <v>initial_investment</v>
-      </c>
-      <c r="E327" s="125">
-        <v>6500</v>
-      </c>
-      <c r="F327" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="G327" s="240" t="s">
-        <v>227</v>
-      </c>
+      <c r="C327" s="127"/>
+      <c r="D327" s="234" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E327" s="235">
+        <f>E325/E313</f>
+        <v>154736.84210526317</v>
+      </c>
+      <c r="F327" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="G327" s="127"/>
       <c r="H327" s="127"/>
       <c r="I327" s="127"/>
       <c r="J327" s="128"/>
@@ -11194,20 +11339,7 @@
     <row r="328" spans="2:10" s="125" customFormat="1">
       <c r="B328" s="126"/>
       <c r="C328" s="127"/>
-      <c r="D328" s="239" t="str">
-        <f>Dashboard!C37</f>
-        <v>fixed_operation_and_maintenance_costs_per_year</v>
-      </c>
-      <c r="E328" s="125">
-        <f>E327*0.02</f>
-        <v>130</v>
-      </c>
-      <c r="F328" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="G328" s="238" t="s">
-        <v>226</v>
-      </c>
+      <c r="G328" s="127"/>
       <c r="H328" s="127"/>
       <c r="I328" s="127"/>
       <c r="J328" s="128"/>
@@ -11215,8 +11347,8 @@
     <row r="329" spans="2:10" s="125" customFormat="1">
       <c r="B329" s="126"/>
       <c r="C329" s="127"/>
-      <c r="D329" s="235"/>
-      <c r="E329" s="237"/>
+      <c r="D329" s="234"/>
+      <c r="E329" s="236"/>
       <c r="F329" s="127"/>
       <c r="G329" s="127"/>
       <c r="H329" s="127"/>
@@ -11226,8 +11358,8 @@
     <row r="330" spans="2:10" s="125" customFormat="1">
       <c r="B330" s="126"/>
       <c r="C330" s="127"/>
-      <c r="D330" s="235"/>
-      <c r="E330" s="237"/>
+      <c r="D330" s="234"/>
+      <c r="E330" s="236"/>
       <c r="F330" s="127"/>
       <c r="G330" s="127"/>
       <c r="H330" s="127"/>
@@ -11237,8 +11369,8 @@
     <row r="331" spans="2:10" s="125" customFormat="1">
       <c r="B331" s="126"/>
       <c r="C331" s="127"/>
-      <c r="D331" s="235"/>
-      <c r="E331" s="237"/>
+      <c r="D331" s="234"/>
+      <c r="E331" s="236"/>
       <c r="F331" s="127"/>
       <c r="G331" s="127"/>
       <c r="H331" s="127"/>
@@ -11248,8 +11380,8 @@
     <row r="332" spans="2:10" s="125" customFormat="1">
       <c r="B332" s="126"/>
       <c r="C332" s="127"/>
-      <c r="D332" s="235"/>
-      <c r="E332" s="237"/>
+      <c r="D332" s="234"/>
+      <c r="E332" s="236"/>
       <c r="F332" s="127"/>
       <c r="G332" s="127"/>
       <c r="H332" s="127"/>
@@ -11259,8 +11391,8 @@
     <row r="333" spans="2:10" s="125" customFormat="1">
       <c r="B333" s="126"/>
       <c r="C333" s="127"/>
-      <c r="D333" s="235"/>
-      <c r="E333" s="237"/>
+      <c r="D333" s="234"/>
+      <c r="E333" s="236"/>
       <c r="F333" s="127"/>
       <c r="G333" s="127"/>
       <c r="H333" s="127"/>
@@ -11270,8 +11402,8 @@
     <row r="334" spans="2:10" s="125" customFormat="1">
       <c r="B334" s="126"/>
       <c r="C334" s="127"/>
-      <c r="D334" s="235"/>
-      <c r="E334" s="237"/>
+      <c r="D334" s="234"/>
+      <c r="E334" s="236"/>
       <c r="F334" s="127"/>
       <c r="G334" s="127"/>
       <c r="H334" s="127"/>
@@ -11280,34 +11412,143 @@
     </row>
     <row r="335" spans="2:10" s="125" customFormat="1">
       <c r="B335" s="126"/>
-      <c r="C335" s="127"/>
-      <c r="D335" s="235"/>
-      <c r="E335" s="237"/>
-      <c r="F335" s="127"/>
-      <c r="G335" s="127"/>
+      <c r="C335" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D335" s="238" t="str">
+        <f>Dashboard!C33</f>
+        <v>initial_investment</v>
+      </c>
+      <c r="E335" s="125">
+        <v>6500</v>
+      </c>
+      <c r="F335" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="G335" s="239" t="s">
+        <v>227</v>
+      </c>
       <c r="H335" s="127"/>
       <c r="I335" s="127"/>
       <c r="J335" s="128"/>
     </row>
     <row r="336" spans="2:10" s="125" customFormat="1">
       <c r="B336" s="126"/>
-      <c r="C336" s="12"/>
-      <c r="F336" s="211"/>
-      <c r="G336" s="127"/>
+      <c r="C336" s="127"/>
+      <c r="D336" s="238" t="str">
+        <f>Dashboard!C37</f>
+        <v>fixed_operation_and_maintenance_costs_per_year</v>
+      </c>
+      <c r="E336" s="125">
+        <f>E335*0.02</f>
+        <v>130</v>
+      </c>
+      <c r="F336" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="G336" s="237" t="s">
+        <v>226</v>
+      </c>
       <c r="H336" s="127"/>
       <c r="I336" s="127"/>
       <c r="J336" s="128"/>
     </row>
-    <row r="337" spans="2:10" s="125" customFormat="1" ht="17" thickBot="1">
-      <c r="B337" s="212"/>
-      <c r="C337" s="213"/>
-      <c r="D337" s="213"/>
-      <c r="E337" s="213"/>
-      <c r="F337" s="213"/>
-      <c r="G337" s="213"/>
-      <c r="H337" s="213"/>
-      <c r="I337" s="213"/>
-      <c r="J337" s="214"/>
+    <row r="337" spans="2:10" s="125" customFormat="1">
+      <c r="B337" s="126"/>
+      <c r="C337" s="127"/>
+      <c r="D337" s="234"/>
+      <c r="E337" s="236"/>
+      <c r="F337" s="127"/>
+      <c r="G337" s="127"/>
+      <c r="H337" s="127"/>
+      <c r="I337" s="127"/>
+      <c r="J337" s="128"/>
+    </row>
+    <row r="338" spans="2:10" s="125" customFormat="1">
+      <c r="B338" s="126"/>
+      <c r="C338" s="127"/>
+      <c r="D338" s="234"/>
+      <c r="E338" s="236"/>
+      <c r="F338" s="127"/>
+      <c r="G338" s="127"/>
+      <c r="H338" s="127"/>
+      <c r="I338" s="127"/>
+      <c r="J338" s="128"/>
+    </row>
+    <row r="339" spans="2:10" s="125" customFormat="1">
+      <c r="B339" s="126"/>
+      <c r="C339" s="127"/>
+      <c r="D339" s="234"/>
+      <c r="E339" s="236"/>
+      <c r="F339" s="127"/>
+      <c r="G339" s="127"/>
+      <c r="H339" s="127"/>
+      <c r="I339" s="127"/>
+      <c r="J339" s="128"/>
+    </row>
+    <row r="340" spans="2:10" s="125" customFormat="1">
+      <c r="B340" s="126"/>
+      <c r="C340" s="127"/>
+      <c r="D340" s="234"/>
+      <c r="E340" s="236"/>
+      <c r="F340" s="127"/>
+      <c r="G340" s="127"/>
+      <c r="H340" s="127"/>
+      <c r="I340" s="127"/>
+      <c r="J340" s="128"/>
+    </row>
+    <row r="341" spans="2:10" s="125" customFormat="1">
+      <c r="B341" s="126"/>
+      <c r="C341" s="127"/>
+      <c r="D341" s="234"/>
+      <c r="E341" s="236"/>
+      <c r="F341" s="127"/>
+      <c r="G341" s="127"/>
+      <c r="H341" s="127"/>
+      <c r="I341" s="127"/>
+      <c r="J341" s="128"/>
+    </row>
+    <row r="342" spans="2:10" s="125" customFormat="1">
+      <c r="B342" s="126"/>
+      <c r="C342" s="127"/>
+      <c r="D342" s="234"/>
+      <c r="E342" s="236"/>
+      <c r="F342" s="127"/>
+      <c r="G342" s="127"/>
+      <c r="H342" s="127"/>
+      <c r="I342" s="127"/>
+      <c r="J342" s="128"/>
+    </row>
+    <row r="343" spans="2:10" s="125" customFormat="1">
+      <c r="B343" s="126"/>
+      <c r="C343" s="127"/>
+      <c r="D343" s="234"/>
+      <c r="E343" s="236"/>
+      <c r="F343" s="127"/>
+      <c r="G343" s="127"/>
+      <c r="H343" s="127"/>
+      <c r="I343" s="127"/>
+      <c r="J343" s="128"/>
+    </row>
+    <row r="344" spans="2:10" s="125" customFormat="1">
+      <c r="B344" s="126"/>
+      <c r="C344" s="12"/>
+      <c r="F344" s="211"/>
+      <c r="G344" s="127"/>
+      <c r="H344" s="127"/>
+      <c r="I344" s="127"/>
+      <c r="J344" s="128"/>
+    </row>
+    <row r="345" spans="2:10" s="125" customFormat="1" ht="17" thickBot="1">
+      <c r="B345" s="212"/>
+      <c r="C345" s="213"/>
+      <c r="D345" s="213"/>
+      <c r="E345" s="213"/>
+      <c r="F345" s="213"/>
+      <c r="G345" s="213"/>
+      <c r="H345" s="213"/>
+      <c r="I345" s="213"/>
+      <c r="J345" s="214"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
